--- a/Uploads/Data/SampleEventWQ_TEMPLATE.xlsx
+++ b/Uploads/Data/SampleEventWQ_TEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\SQL-Database-Corrections\Uploads\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8543914-B50E-4310-9700-609387EE1AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921374AE-079E-4707-9808-B0DE669CCBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{2108D022-863A-4DDA-9361-349A7F55884E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2108D022-863A-4DDA-9361-349A7F55884E}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -6942,15 +6942,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7156,7 +7156,9 @@
     <tableColumn id="1" xr3:uid="{76D7ABEC-2288-4626-9B6A-9D01F60F39E0}" name="SampleEventWQID">
       <calculatedColumnFormula array="1">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[StationNumber]=Instructions!D9),0),1),"_1_0",Instructions!E9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9F338ED6-22F6-4E24-AA7D-AC0F8BB69B23}" name="SampleEventID"/>
+    <tableColumn id="2" xr3:uid="{9F338ED6-22F6-4E24-AA7D-AC0F8BB69B23}" name="SampleEventID">
+      <calculatedColumnFormula array="1">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[StationNumber]=Instructions!D9)*(Instructions!B9&gt;Table1[StartDate])*(Instructions!B9&lt;Table1[EndDate]),0),1),"_1")</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{BD967F3C-0D0C-4E5D-80F9-BD1C7E33A66B}" name="Temperature"/>
     <tableColumn id="4" xr3:uid="{1138803D-21C1-463B-A887-D6B0672099DE}" name="Salinity"/>
     <tableColumn id="5" xr3:uid="{1416105A-E351-436F-B0F4-24A5C02BFD97}" name="DissolvedOxygen"/>
@@ -7535,7 +7537,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7562,82 +7564,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>1807</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>1810</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>1803</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="7" t="s">
         <v>1809</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -7987,7 +7989,7 @@
         <v>TBRCRT_20080318_1_0278_1_01</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[StationNumber]=Instructions!D9),0),1),"_1")</f>
+        <f t="array" ref="B2">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[StationNumber]=Instructions!D9)*(Instructions!B9&gt;Table1[StartDate])*(Instructions!B9&lt;Table1[EndDate]),0),1),"_1")</f>
         <v>TBRCRT_20080318_1_0278_1</v>
       </c>
       <c r="C2">
@@ -8085,8 +8087,8 @@
         <v>TBRCRT_20080318_1_0279_1_01</v>
       </c>
       <c r="B3" t="str" cm="1">
-        <f t="array" ref="B3">_xlfn.CONCAT(Instructions!C10,Instructions!A10,"_",TEXT(Instructions!B10,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C10)*(Table1[StationNumber]=Instructions!D10),0),1),"_1")</f>
-        <v>TBRCRT_20080318_1_0279_1</v>
+        <f t="array" ref="B3">_xlfn.CONCAT(Instructions!C10,Instructions!A10,"_",TEXT(Instructions!B10,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C10)*(Table1[StationNumber]=Instructions!D10)*(Instructions!B10&gt;Table1[StartDate])*(Instructions!B10&lt;Table1[EndDate]),0),1),"_1")</f>
+        <v>TBRCRT_20080318_1_0280_1</v>
       </c>
       <c r="C3">
         <f>IF(Instructions!I10&lt;&gt;"",Instructions!I10,"NULL")</f>
@@ -8183,8 +8185,8 @@
         <v>TBRCRT_20080318_1_0281_1_01</v>
       </c>
       <c r="B4" t="str" cm="1">
-        <f t="array" ref="B4">_xlfn.CONCAT(Instructions!C11,Instructions!A11,"_",TEXT(Instructions!B11,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C11)*(Table1[StationNumber]=Instructions!D11),0),1),"_1")</f>
-        <v>TBRCRT_20080318_1_0281_1</v>
+        <f t="array" ref="B4">_xlfn.CONCAT(Instructions!C11,Instructions!A11,"_",TEXT(Instructions!B11,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C11)*(Table1[StationNumber]=Instructions!D11)*(Instructions!B11&gt;Table1[StartDate])*(Instructions!B11&lt;Table1[EndDate]),0),1),"_1")</f>
+        <v>TBRCRT_20080318_1_0282_1</v>
       </c>
       <c r="C4">
         <f>IF(Instructions!I11&lt;&gt;"",Instructions!I11,"NULL")</f>

--- a/Uploads/Data/SampleEventWQ_TEMPLATE.xlsx
+++ b/Uploads/Data/SampleEventWQ_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\SQL-Database-Corrections\Uploads\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921374AE-079E-4707-9808-B0DE669CCBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C2BB16-A063-4547-BA86-A4096B38EF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2108D022-863A-4DDA-9361-349A7F55884E}"/>
   </bookViews>
@@ -6804,7 +6804,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6824,6 +6824,13 @@
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6926,7 +6933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6942,6 +6949,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -6955,7 +6965,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="45">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -7020,6 +7030,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7120,30 +7133,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}" name="Table2" displayName="Table2" ref="A8:U11" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}" name="Table2" displayName="Table2" ref="A8:U11" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A8:U11" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}"/>
   <tableColumns count="21">
-    <tableColumn id="20" xr3:uid="{FC1F9811-332A-4FBC-A60F-2ABD60672380}" name="DataType" dataDxfId="41"/>
-    <tableColumn id="1" xr3:uid="{144FE1A1-5D1F-48A8-B4E0-C6821BF0BD54}" name="Date" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{AFF01087-08D5-4CF6-9523-62D2D0BEBC6B}" name="Estuary" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{2970053B-A957-48FC-A90D-21B578A4956B}" name="StationNumber" dataDxfId="38"/>
-    <tableColumn id="21" xr3:uid="{A5646A38-CEE4-47A5-A8D7-2C283D516F4F}" name="RecordNumber" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{C179B73B-131D-4D71-B4A0-C4CC7D758024}" name="CollectionTime [hhmm]" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{8B92EA8F-2DFF-4C65-939A-39D87C62433B}" name="Depth" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{76C6FCEB-0D98-4AFF-87B3-78193D7FFE8E}" name="SampleDepth" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{633E4762-4EB2-4A55-9B00-1336FF487A9F}" name="Temperature" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{66807F70-E995-4481-B4AF-41394A4C37E0}" name="Salinity" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{63FB168B-9A0B-4344-A86F-733BAD223B17}" name="pH" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{AC27265D-7D40-438F-A234-94AEBC98D1BA}" name="DissolvedOxygen" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{9F749151-8279-4E42-9767-A2CF43E6617B}" name="PercentDissolvedOxygen" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{127AA6C3-F48B-4516-BC6A-B9F89B73401F}" name="Secchi" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{6F9B8C9E-CDF6-4BEE-A2C2-6C6852EB70E2}" name="TurbidityYSI" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{90EE055D-A71E-4D28-B975-F45623AAE850}" name="TurbidityHach" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{23A9EA71-7204-424A-A1C6-DD44A7137225}" name="DateEntered" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{59E70D4E-0FC7-43FD-854E-72E1A1B7CB06}" name="EnteredBy" dataDxfId="24"/>
-    <tableColumn id="17" xr3:uid="{0506E9DB-8E2C-4F8E-BCCA-F66991F2B2FA}" name="Comments" dataDxfId="23"/>
-    <tableColumn id="18" xr3:uid="{8B343F40-3158-4F64-8865-9A7ACEEF8394}" name="YSICalibration" dataDxfId="22"/>
-    <tableColumn id="19" xr3:uid="{78BBCEE7-4E32-43E3-B71C-74EF070C545B}" name="YSINotes" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{FC1F9811-332A-4FBC-A60F-2ABD60672380}" name="DataType" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{144FE1A1-5D1F-48A8-B4E0-C6821BF0BD54}" name="Date" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{AFF01087-08D5-4CF6-9523-62D2D0BEBC6B}" name="Estuary" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{2970053B-A957-48FC-A90D-21B578A4956B}" name="StationNumber" dataDxfId="39"/>
+    <tableColumn id="21" xr3:uid="{A5646A38-CEE4-47A5-A8D7-2C283D516F4F}" name="RecordNumber" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{C179B73B-131D-4D71-B4A0-C4CC7D758024}" name="CollectionTime [hhmm]" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{8B92EA8F-2DFF-4C65-939A-39D87C62433B}" name="Depth" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{76C6FCEB-0D98-4AFF-87B3-78193D7FFE8E}" name="SampleDepth" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{633E4762-4EB2-4A55-9B00-1336FF487A9F}" name="Temperature" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{66807F70-E995-4481-B4AF-41394A4C37E0}" name="Salinity" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{63FB168B-9A0B-4344-A86F-733BAD223B17}" name="pH" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{AC27265D-7D40-438F-A234-94AEBC98D1BA}" name="DissolvedOxygen" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{9F749151-8279-4E42-9767-A2CF43E6617B}" name="PercentDissolvedOxygen" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{127AA6C3-F48B-4516-BC6A-B9F89B73401F}" name="Secchi" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{6F9B8C9E-CDF6-4BEE-A2C2-6C6852EB70E2}" name="TurbidityYSI" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{90EE055D-A71E-4D28-B975-F45623AAE850}" name="TurbidityHach" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{23A9EA71-7204-424A-A1C6-DD44A7137225}" name="DateEntered" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{59E70D4E-0FC7-43FD-854E-72E1A1B7CB06}" name="EnteredBy" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{0506E9DB-8E2C-4F8E-BCCA-F66991F2B2FA}" name="Comments" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{8B343F40-3158-4F64-8865-9A7ACEEF8394}" name="YSICalibration" dataDxfId="23"/>
+    <tableColumn id="19" xr3:uid="{78BBCEE7-4E32-43E3-B71C-74EF070C545B}" name="YSINotes" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7153,8 +7166,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}" name="Table3" displayName="Table3" ref="A1:X4" totalsRowShown="0">
   <autoFilter ref="A1:X4" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{76D7ABEC-2288-4626-9B6A-9D01F60F39E0}" name="SampleEventWQID">
-      <calculatedColumnFormula array="1">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[StationNumber]=Instructions!D9),0),1),"_1_0",Instructions!E9)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{76D7ABEC-2288-4626-9B6A-9D01F60F39E0}" name="SampleEventWQID" dataDxfId="21">
+      <calculatedColumnFormula array="1">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[StationNumber]=Instructions!D9)*(Instructions!B9&gt;Table1[StartDate])*(Instructions!B9&lt;Table1[EndDate]),0),1),"_1_0",Instructions!E9)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{9F338ED6-22F6-4E24-AA7D-AC0F8BB69B23}" name="SampleEventID">
       <calculatedColumnFormula array="1">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[StationNumber]=Instructions!D9)*(Instructions!B9&gt;Table1[StartDate])*(Instructions!B9&lt;Table1[EndDate]),0),1),"_1")</calculatedColumnFormula>
@@ -7188,7 +7201,13 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{493C3DDF-B5B4-4E3C-8AD3-ADABB450E83E}" name="Table1" displayName="Table1" ref="A1:S815" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S815" xr:uid="{493C3DDF-B5B4-4E3C-8AD3-ADABB450E83E}"/>
+  <autoFilter ref="A1:S815" xr:uid="{493C3DDF-B5B4-4E3C-8AD3-ADABB450E83E}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="TB"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S815">
     <sortCondition ref="A1:A815"/>
   </sortState>
@@ -7537,7 +7556,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7564,82 +7583,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>1807</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>1810</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>1803</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>1809</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -7879,7 +7898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67E62C5-4E8D-49D3-846A-7389286C002D}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7985,7 +8006,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[StationNumber]=Instructions!D9),0),1),"_1_0",Instructions!E9)</f>
+        <f t="array" ref="A2">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[StationNumber]=Instructions!D9)*(Instructions!B9&gt;Table1[StartDate])*(Instructions!B9&lt;Table1[EndDate]),0),1),"_1_0",Instructions!E9)</f>
         <v>TBRCRT_20080318_1_0278_1_01</v>
       </c>
       <c r="B2" t="str" cm="1">
@@ -8083,8 +8104,8 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="str" cm="1">
-        <f t="array" ref="A3">_xlfn.CONCAT(Instructions!C10,Instructions!A10,"_",TEXT(Instructions!B10,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C10)*(Table1[StationNumber]=Instructions!D10),0),1),"_1_0",Instructions!E10)</f>
-        <v>TBRCRT_20080318_1_0279_1_01</v>
+        <f t="array" ref="A3">_xlfn.CONCAT(Instructions!C10,Instructions!A10,"_",TEXT(Instructions!B10,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C10)*(Table1[StationNumber]=Instructions!D10)*(Instructions!B10&gt;Table1[StartDate])*(Instructions!B10&lt;Table1[EndDate]),0),1),"_1_0",Instructions!E10)</f>
+        <v>TBRCRT_20080318_1_0280_1_01</v>
       </c>
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3">_xlfn.CONCAT(Instructions!C10,Instructions!A10,"_",TEXT(Instructions!B10,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C10)*(Table1[StationNumber]=Instructions!D10)*(Instructions!B10&gt;Table1[StartDate])*(Instructions!B10&lt;Table1[EndDate]),0),1),"_1")</f>
@@ -8181,8 +8202,8 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="str" cm="1">
-        <f t="array" ref="A4">_xlfn.CONCAT(Instructions!C11,Instructions!A11,"_",TEXT(Instructions!B11,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C11)*(Table1[StationNumber]=Instructions!D11),0),1),"_1_0",Instructions!E11)</f>
-        <v>TBRCRT_20080318_1_0281_1_01</v>
+        <f t="array" ref="A4">_xlfn.CONCAT(Instructions!C11,Instructions!A11,"_",TEXT(Instructions!B11,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C11)*(Table1[StationNumber]=Instructions!D11)*(Instructions!B11&gt;Table1[StartDate])*(Instructions!B11&lt;Table1[EndDate]),0),1),"_1_0",Instructions!E11)</f>
+        <v>TBRCRT_20080318_1_0282_1_01</v>
       </c>
       <c r="B4" t="str" cm="1">
         <f t="array" ref="B4">_xlfn.CONCAT(Instructions!C11,Instructions!A11,"_",TEXT(Instructions!B11,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C11)*(Table1[StationNumber]=Instructions!D11)*(Instructions!B11&gt;Table1[StartDate])*(Instructions!B11&lt;Table1[EndDate]),0),1),"_1")</f>
@@ -8292,7 +8313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9135BC8C-C095-4174-876F-A976B8C1179A}">
   <dimension ref="A1:S815"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q278" sqref="Q278"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8377,7 +8400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1845</v>
       </c>
@@ -8436,7 +8459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1846</v>
       </c>
@@ -8495,7 +8518,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1847</v>
       </c>
@@ -8554,7 +8577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1848</v>
       </c>
@@ -8613,7 +8636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1849</v>
       </c>
@@ -8672,7 +8695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1850</v>
       </c>
@@ -8731,7 +8754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1851</v>
       </c>
@@ -8790,7 +8813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1852</v>
       </c>
@@ -8849,7 +8872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1853</v>
       </c>
@@ -8908,7 +8931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1854</v>
       </c>
@@ -8967,7 +8990,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1855</v>
       </c>
@@ -9026,7 +9049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>1856</v>
       </c>
@@ -9085,7 +9108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1857</v>
       </c>
@@ -9144,7 +9167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1858</v>
       </c>
@@ -9203,7 +9226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1859</v>
       </c>
@@ -9262,7 +9285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>1860</v>
       </c>
@@ -9321,7 +9344,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>1861</v>
       </c>
@@ -9380,7 +9403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>1862</v>
       </c>
@@ -9439,7 +9462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1863</v>
       </c>
@@ -9498,7 +9521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1864</v>
       </c>
@@ -9557,7 +9580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>1865</v>
       </c>
@@ -9616,7 +9639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>1866</v>
       </c>
@@ -9675,7 +9698,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>1867</v>
       </c>
@@ -9734,7 +9757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>1868</v>
       </c>
@@ -9793,7 +9816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1869</v>
       </c>
@@ -9852,7 +9875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1870</v>
       </c>
@@ -9911,7 +9934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>1871</v>
       </c>
@@ -9970,7 +9993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1872</v>
       </c>
@@ -10029,7 +10052,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1873</v>
       </c>
@@ -10088,7 +10111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>1874</v>
       </c>
@@ -10147,7 +10170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1875</v>
       </c>
@@ -10206,7 +10229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1876</v>
       </c>
@@ -10265,7 +10288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1877</v>
       </c>
@@ -10324,7 +10347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>1878</v>
       </c>
@@ -10383,7 +10406,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1879</v>
       </c>
@@ -10442,7 +10465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1880</v>
       </c>
@@ -10501,7 +10524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>1881</v>
       </c>
@@ -10560,7 +10583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>1882</v>
       </c>
@@ -10619,7 +10642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1883</v>
       </c>
@@ -10678,7 +10701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>1884</v>
       </c>
@@ -10737,7 +10760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1885</v>
       </c>
@@ -10796,7 +10819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>1886</v>
       </c>
@@ -10855,7 +10878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>1887</v>
       </c>
@@ -10914,7 +10937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>1888</v>
       </c>
@@ -10973,7 +10996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>1889</v>
       </c>
@@ -11032,7 +11055,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>1890</v>
       </c>
@@ -11091,7 +11114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>1891</v>
       </c>
@@ -11150,7 +11173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>1892</v>
       </c>
@@ -11209,7 +11232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>1893</v>
       </c>
@@ -11268,7 +11291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>1894</v>
       </c>
@@ -11327,7 +11350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>1895</v>
       </c>
@@ -11386,7 +11409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>1896</v>
       </c>
@@ -11445,7 +11468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>1897</v>
       </c>
@@ -11504,7 +11527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>1898</v>
       </c>
@@ -11563,7 +11586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>1899</v>
       </c>
@@ -11622,7 +11645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>1900</v>
       </c>
@@ -11681,7 +11704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>1901</v>
       </c>
@@ -11740,7 +11763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1902</v>
       </c>
@@ -11799,7 +11822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>1903</v>
       </c>
@@ -11858,7 +11881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>1904</v>
       </c>
@@ -11917,7 +11940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>1905</v>
       </c>
@@ -11976,7 +11999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>1906</v>
       </c>
@@ -12035,7 +12058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>1907</v>
       </c>
@@ -12094,7 +12117,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>1908</v>
       </c>
@@ -12153,7 +12176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>1909</v>
       </c>
@@ -12212,7 +12235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>1910</v>
       </c>
@@ -12271,7 +12294,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1911</v>
       </c>
@@ -12330,7 +12353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>1912</v>
       </c>
@@ -12389,7 +12412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1913</v>
       </c>
@@ -12448,7 +12471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>1914</v>
       </c>
@@ -12507,7 +12530,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>1915</v>
       </c>
@@ -12566,7 +12589,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>1916</v>
       </c>
@@ -12625,7 +12648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>1917</v>
       </c>
@@ -12684,7 +12707,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>1918</v>
       </c>
@@ -12743,7 +12766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>1919</v>
       </c>
@@ -12802,7 +12825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>1920</v>
       </c>
@@ -12861,7 +12884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>1921</v>
       </c>
@@ -12920,7 +12943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>1922</v>
       </c>
@@ -12979,7 +13002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>1923</v>
       </c>
@@ -13038,7 +13061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>1924</v>
       </c>
@@ -13097,7 +13120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>1925</v>
       </c>
@@ -13156,7 +13179,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>1926</v>
       </c>
@@ -13215,7 +13238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>1927</v>
       </c>
@@ -13274,7 +13297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>1928</v>
       </c>
@@ -13333,7 +13356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>1929</v>
       </c>
@@ -13392,7 +13415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>1930</v>
       </c>
@@ -13451,7 +13474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>1931</v>
       </c>
@@ -13510,7 +13533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>1932</v>
       </c>
@@ -13569,7 +13592,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>1933</v>
       </c>
@@ -13628,7 +13651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>1934</v>
       </c>
@@ -13687,7 +13710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>1935</v>
       </c>
@@ -13746,7 +13769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>1936</v>
       </c>
@@ -13805,7 +13828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>1937</v>
       </c>
@@ -13864,7 +13887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>1938</v>
       </c>
@@ -13923,7 +13946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>1939</v>
       </c>
@@ -13982,7 +14005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>1940</v>
       </c>
@@ -14041,7 +14064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>1941</v>
       </c>
@@ -14100,7 +14123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>1942</v>
       </c>
@@ -14159,7 +14182,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>1943</v>
       </c>
@@ -14218,7 +14241,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>1944</v>
       </c>
@@ -14277,7 +14300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>1945</v>
       </c>
@@ -14336,7 +14359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>1946</v>
       </c>
@@ -14395,7 +14418,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>1947</v>
       </c>
@@ -14454,7 +14477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>1948</v>
       </c>
@@ -14513,7 +14536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>1949</v>
       </c>
@@ -14572,7 +14595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>1950</v>
       </c>
@@ -14631,7 +14654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>1951</v>
       </c>
@@ -14690,7 +14713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>1952</v>
       </c>
@@ -14749,7 +14772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>1953</v>
       </c>
@@ -14808,7 +14831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>1954</v>
       </c>
@@ -14867,7 +14890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>1955</v>
       </c>
@@ -14926,7 +14949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>1956</v>
       </c>
@@ -14985,7 +15008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>1957</v>
       </c>
@@ -15044,7 +15067,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>1958</v>
       </c>
@@ -15103,7 +15126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>1959</v>
       </c>
@@ -15162,7 +15185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>1960</v>
       </c>
@@ -15221,7 +15244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>1961</v>
       </c>
@@ -15280,7 +15303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>1962</v>
       </c>
@@ -15339,7 +15362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>1963</v>
       </c>
@@ -15398,7 +15421,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>1964</v>
       </c>
@@ -15457,7 +15480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>1965</v>
       </c>
@@ -15516,7 +15539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>1966</v>
       </c>
@@ -15575,7 +15598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>1967</v>
       </c>
@@ -15634,7 +15657,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>1968</v>
       </c>
@@ -15693,7 +15716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>1969</v>
       </c>
@@ -15752,7 +15775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>1970</v>
       </c>
@@ -15811,7 +15834,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>1971</v>
       </c>
@@ -15870,7 +15893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>1972</v>
       </c>
@@ -15929,7 +15952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>1973</v>
       </c>
@@ -15988,7 +16011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>1974</v>
       </c>
@@ -16047,7 +16070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>1975</v>
       </c>
@@ -16106,7 +16129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>1976</v>
       </c>
@@ -16165,7 +16188,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>1977</v>
       </c>
@@ -16224,7 +16247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>1978</v>
       </c>
@@ -16283,7 +16306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>1979</v>
       </c>
@@ -16342,7 +16365,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>1980</v>
       </c>
@@ -16401,7 +16424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>1981</v>
       </c>
@@ -16460,7 +16483,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>1982</v>
       </c>
@@ -16519,7 +16542,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>1983</v>
       </c>
@@ -16578,7 +16601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>1984</v>
       </c>
@@ -16637,7 +16660,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>1985</v>
       </c>
@@ -16696,7 +16719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>1986</v>
       </c>
@@ -16755,7 +16778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>1987</v>
       </c>
@@ -16814,7 +16837,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>1988</v>
       </c>
@@ -16873,7 +16896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>1989</v>
       </c>
@@ -16932,7 +16955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>1990</v>
       </c>
@@ -16991,7 +17014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>1991</v>
       </c>
@@ -17050,7 +17073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>1992</v>
       </c>
@@ -17109,7 +17132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>1993</v>
       </c>
@@ -17168,7 +17191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>1994</v>
       </c>
@@ -17227,7 +17250,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>1995</v>
       </c>
@@ -17286,7 +17309,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>1996</v>
       </c>
@@ -17345,7 +17368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>1997</v>
       </c>
@@ -17404,7 +17427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>1998</v>
       </c>
@@ -17463,7 +17486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>1999</v>
       </c>
@@ -17522,7 +17545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>2000</v>
       </c>
@@ -17581,7 +17604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>2001</v>
       </c>
@@ -17640,7 +17663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>2002</v>
       </c>
@@ -17699,7 +17722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>2003</v>
       </c>
@@ -17758,7 +17781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>2004</v>
       </c>
@@ -17817,7 +17840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>2005</v>
       </c>
@@ -17876,7 +17899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>2006</v>
       </c>
@@ -17935,7 +17958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>2007</v>
       </c>
@@ -17994,7 +18017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>2008</v>
       </c>
@@ -18053,7 +18076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>2009</v>
       </c>
@@ -18112,7 +18135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>2010</v>
       </c>
@@ -18171,7 +18194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>2011</v>
       </c>
@@ -18230,7 +18253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>2012</v>
       </c>
@@ -18289,7 +18312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>2013</v>
       </c>
@@ -18348,7 +18371,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>2014</v>
       </c>
@@ -18407,7 +18430,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>2015</v>
       </c>
@@ -18466,7 +18489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>2016</v>
       </c>
@@ -18525,7 +18548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>2017</v>
       </c>
@@ -18584,7 +18607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>2018</v>
       </c>
@@ -18643,7 +18666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>2019</v>
       </c>
@@ -18702,7 +18725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>2020</v>
       </c>
@@ -18761,7 +18784,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>2021</v>
       </c>
@@ -18820,7 +18843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>2022</v>
       </c>
@@ -18879,7 +18902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>2023</v>
       </c>
@@ -18938,7 +18961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>2024</v>
       </c>
@@ -18997,7 +19020,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>2025</v>
       </c>
@@ -19056,7 +19079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>2026</v>
       </c>
@@ -19115,7 +19138,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>2027</v>
       </c>
@@ -19174,7 +19197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>2028</v>
       </c>
@@ -19233,7 +19256,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>2029</v>
       </c>
@@ -19292,7 +19315,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>2030</v>
       </c>
@@ -19351,7 +19374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>2031</v>
       </c>
@@ -19410,7 +19433,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>2032</v>
       </c>
@@ -19469,7 +19492,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>2033</v>
       </c>
@@ -19528,7 +19551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>2034</v>
       </c>
@@ -19587,7 +19610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>2035</v>
       </c>
@@ -19646,7 +19669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>2036</v>
       </c>
@@ -19705,7 +19728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>2037</v>
       </c>
@@ -19764,7 +19787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>2038</v>
       </c>
@@ -19823,7 +19846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>2039</v>
       </c>
@@ -19882,7 +19905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>2040</v>
       </c>
@@ -19941,7 +19964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>2041</v>
       </c>
@@ -20000,7 +20023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>2042</v>
       </c>
@@ -20059,7 +20082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>2043</v>
       </c>
@@ -20118,7 +20141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>2044</v>
       </c>
@@ -20177,7 +20200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>2045</v>
       </c>
@@ -20236,7 +20259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>2046</v>
       </c>
@@ -20295,7 +20318,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>2047</v>
       </c>
@@ -20354,7 +20377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>2048</v>
       </c>
@@ -20413,7 +20436,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>2049</v>
       </c>
@@ -20472,7 +20495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>2050</v>
       </c>
@@ -20531,7 +20554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>2051</v>
       </c>
@@ -20590,7 +20613,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>2052</v>
       </c>
@@ -20649,7 +20672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>2053</v>
       </c>
@@ -20708,7 +20731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>2054</v>
       </c>
@@ -20767,7 +20790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>2055</v>
       </c>
@@ -20826,7 +20849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>2056</v>
       </c>
@@ -20885,7 +20908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>2057</v>
       </c>
@@ -20944,7 +20967,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>2058</v>
       </c>
@@ -21003,7 +21026,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>2059</v>
       </c>
@@ -21062,7 +21085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>2060</v>
       </c>
@@ -21121,7 +21144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>2061</v>
       </c>
@@ -21180,7 +21203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>2062</v>
       </c>
@@ -21239,7 +21262,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>2063</v>
       </c>
@@ -21298,7 +21321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>2064</v>
       </c>
@@ -21357,7 +21380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>2065</v>
       </c>
@@ -21416,7 +21439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>2066</v>
       </c>
@@ -21475,7 +21498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>2067</v>
       </c>
@@ -21534,7 +21557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>2068</v>
       </c>
@@ -21593,7 +21616,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>2069</v>
       </c>
@@ -21652,7 +21675,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>2070</v>
       </c>
@@ -21711,7 +21734,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>2071</v>
       </c>
@@ -21770,7 +21793,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>2072</v>
       </c>
@@ -21829,7 +21852,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>2073</v>
       </c>
@@ -21888,7 +21911,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>2074</v>
       </c>
@@ -21947,7 +21970,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>2075</v>
       </c>
@@ -22006,7 +22029,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>2076</v>
       </c>
@@ -22065,7 +22088,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>2077</v>
       </c>
@@ -22124,7 +22147,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>2078</v>
       </c>
@@ -22183,7 +22206,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>2079</v>
       </c>
@@ -22242,7 +22265,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>2080</v>
       </c>
@@ -22301,7 +22324,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>2081</v>
       </c>
@@ -22360,7 +22383,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>2082</v>
       </c>
@@ -22419,7 +22442,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>2083</v>
       </c>
@@ -22478,7 +22501,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>2084</v>
       </c>
@@ -22537,7 +22560,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>2085</v>
       </c>
@@ -22596,7 +22619,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>2086</v>
       </c>
@@ -22655,7 +22678,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>2087</v>
       </c>
@@ -22714,7 +22737,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>2088</v>
       </c>
@@ -22773,7 +22796,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>2089</v>
       </c>
@@ -22832,7 +22855,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>2090</v>
       </c>
@@ -22891,7 +22914,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>2091</v>
       </c>
@@ -22950,7 +22973,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>2092</v>
       </c>
@@ -23009,7 +23032,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>2093</v>
       </c>
@@ -23068,7 +23091,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>2094</v>
       </c>
@@ -23127,7 +23150,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>2095</v>
       </c>
@@ -23186,7 +23209,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>2096</v>
       </c>
@@ -23245,7 +23268,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>2097</v>
       </c>
@@ -23304,7 +23327,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>2098</v>
       </c>
@@ -23363,7 +23386,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>2099</v>
       </c>
@@ -23422,7 +23445,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>2100</v>
       </c>
@@ -23481,7 +23504,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>2101</v>
       </c>
@@ -23540,7 +23563,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>2102</v>
       </c>
@@ -23599,7 +23622,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>2103</v>
       </c>
@@ -23658,7 +23681,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>2104</v>
       </c>
@@ -23717,7 +23740,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>2105</v>
       </c>
@@ -23776,7 +23799,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>2106</v>
       </c>
@@ -23835,7 +23858,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>2107</v>
       </c>
@@ -23894,7 +23917,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>2108</v>
       </c>
@@ -23953,7 +23976,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>2109</v>
       </c>
@@ -24012,7 +24035,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>2110</v>
       </c>
@@ -24071,7 +24094,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>2111</v>
       </c>
@@ -24130,7 +24153,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>2112</v>
       </c>
@@ -24189,7 +24212,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>2113</v>
       </c>
@@ -24248,7 +24271,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>2114</v>
       </c>
@@ -24307,7 +24330,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>2115</v>
       </c>
@@ -24366,7 +24389,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>2116</v>
       </c>
@@ -24425,7 +24448,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>2117</v>
       </c>
@@ -24484,7 +24507,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>2118</v>
       </c>
@@ -24766,8 +24789,8 @@
       <c r="O279" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P279" s="3">
-        <v>38353</v>
+      <c r="P279" s="7">
+        <v>38965</v>
       </c>
       <c r="Q279" s="3">
         <v>73050</v>
@@ -26372,7 +26395,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>2150</v>
       </c>
@@ -26431,7 +26454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>2151</v>
       </c>
@@ -26490,7 +26513,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>2152</v>
       </c>
@@ -26549,7 +26572,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>2153</v>
       </c>
@@ -26608,7 +26631,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>2154</v>
       </c>
@@ -26667,7 +26690,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>2155</v>
       </c>
@@ -26726,7 +26749,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>2156</v>
       </c>
@@ -26785,7 +26808,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>2157</v>
       </c>
@@ -26844,7 +26867,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>2158</v>
       </c>
@@ -26903,7 +26926,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>2159</v>
       </c>
@@ -26962,7 +26985,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>2160</v>
       </c>
@@ -27021,7 +27044,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>2161</v>
       </c>
@@ -27080,7 +27103,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>2162</v>
       </c>
@@ -27139,7 +27162,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>2163</v>
       </c>
@@ -27198,7 +27221,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>2164</v>
       </c>
@@ -27257,7 +27280,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>2165</v>
       </c>
@@ -27316,7 +27339,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>2166</v>
       </c>
@@ -27375,7 +27398,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>2167</v>
       </c>
@@ -27434,7 +27457,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>2168</v>
       </c>
@@ -27493,7 +27516,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>2169</v>
       </c>
@@ -27552,7 +27575,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>2170</v>
       </c>
@@ -27611,7 +27634,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>2171</v>
       </c>
@@ -27670,7 +27693,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>2172</v>
       </c>
@@ -27729,7 +27752,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>2173</v>
       </c>
@@ -27788,7 +27811,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>2174</v>
       </c>
@@ -27847,7 +27870,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>2175</v>
       </c>
@@ -27906,7 +27929,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>2176</v>
       </c>
@@ -27965,7 +27988,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>2177</v>
       </c>
@@ -28024,7 +28047,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>2178</v>
       </c>
@@ -28083,7 +28106,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>2179</v>
       </c>
@@ -28142,7 +28165,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>2180</v>
       </c>
@@ -28201,7 +28224,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>2181</v>
       </c>
@@ -28260,7 +28283,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>2182</v>
       </c>
@@ -28319,7 +28342,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>2183</v>
       </c>
@@ -28378,7 +28401,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>2184</v>
       </c>
@@ -28437,7 +28460,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>2185</v>
       </c>
@@ -28496,7 +28519,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>2186</v>
       </c>
@@ -28555,7 +28578,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>2187</v>
       </c>
@@ -28614,7 +28637,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>2188</v>
       </c>
@@ -28673,7 +28696,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>2189</v>
       </c>
@@ -28732,7 +28755,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>2190</v>
       </c>
@@ -28791,7 +28814,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>2191</v>
       </c>
@@ -28850,7 +28873,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>2192</v>
       </c>
@@ -28909,7 +28932,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>2193</v>
       </c>
@@ -28968,7 +28991,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>2194</v>
       </c>
@@ -29027,7 +29050,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>2195</v>
       </c>
@@ -29086,7 +29109,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>2196</v>
       </c>
@@ -29145,7 +29168,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>2197</v>
       </c>
@@ -29204,7 +29227,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>2198</v>
       </c>
@@ -29263,7 +29286,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>2199</v>
       </c>
@@ -29322,7 +29345,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>2200</v>
       </c>
@@ -29381,7 +29404,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>2201</v>
       </c>
@@ -29440,7 +29463,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>2202</v>
       </c>
@@ -29499,7 +29522,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>2203</v>
       </c>
@@ -29558,7 +29581,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>2204</v>
       </c>
@@ -29617,7 +29640,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>2205</v>
       </c>
@@ -29676,7 +29699,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>2206</v>
       </c>
@@ -29735,7 +29758,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>2207</v>
       </c>
@@ -29794,7 +29817,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>2208</v>
       </c>
@@ -29853,7 +29876,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>2209</v>
       </c>
@@ -29912,7 +29935,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>2210</v>
       </c>
@@ -29971,7 +29994,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>2211</v>
       </c>
@@ -30030,7 +30053,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>2212</v>
       </c>
@@ -30089,7 +30112,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>2213</v>
       </c>
@@ -30148,7 +30171,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>2214</v>
       </c>
@@ -30207,7 +30230,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>2215</v>
       </c>
@@ -30266,7 +30289,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>2216</v>
       </c>
@@ -30325,7 +30348,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>2217</v>
       </c>
@@ -30384,7 +30407,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>2218</v>
       </c>
@@ -30443,7 +30466,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>2219</v>
       </c>
@@ -30502,7 +30525,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>2220</v>
       </c>
@@ -30738,7 +30761,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>2224</v>
       </c>
@@ -30797,7 +30820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>2225</v>
       </c>
@@ -30856,7 +30879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>2226</v>
       </c>
@@ -30915,7 +30938,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>2227</v>
       </c>
@@ -30974,7 +30997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>2228</v>
       </c>
@@ -31033,7 +31056,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>2229</v>
       </c>
@@ -31092,7 +31115,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>2230</v>
       </c>
@@ -31151,7 +31174,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>2231</v>
       </c>
@@ -31210,7 +31233,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>2232</v>
       </c>
@@ -31269,7 +31292,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>2233</v>
       </c>
@@ -31328,7 +31351,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>2234</v>
       </c>
@@ -31387,7 +31410,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>2235</v>
       </c>
@@ -31446,7 +31469,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>2236</v>
       </c>
@@ -31505,7 +31528,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>2237</v>
       </c>
@@ -31564,7 +31587,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>2238</v>
       </c>
@@ -31623,7 +31646,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>2239</v>
       </c>
@@ -31682,7 +31705,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>2240</v>
       </c>
@@ -31741,7 +31764,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>2241</v>
       </c>
@@ -31800,7 +31823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>2242</v>
       </c>
@@ -31859,7 +31882,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>2243</v>
       </c>
@@ -31918,7 +31941,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>2244</v>
       </c>
@@ -31977,7 +32000,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>2245</v>
       </c>
@@ -32036,7 +32059,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>1843</v>
       </c>
@@ -32095,7 +32118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
         <v>1844</v>
       </c>
@@ -32154,7 +32177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
         <v>1818</v>
       </c>
@@ -32213,7 +32236,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>1819</v>
       </c>
@@ -32272,7 +32295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>1820</v>
       </c>
@@ -32331,7 +32354,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>1821</v>
       </c>
@@ -32390,7 +32413,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
         <v>1822</v>
       </c>
@@ -32449,7 +32472,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>1823</v>
       </c>
@@ -32508,7 +32531,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>1824</v>
       </c>
@@ -32567,7 +32590,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>1825</v>
       </c>
@@ -32626,7 +32649,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>1826</v>
       </c>
@@ -32685,7 +32708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>1827</v>
       </c>
@@ -32744,7 +32767,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>1828</v>
       </c>
@@ -32803,7 +32826,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>1829</v>
       </c>
@@ -32862,7 +32885,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>1811</v>
       </c>
@@ -32921,7 +32944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>1812</v>
       </c>
@@ -32980,7 +33003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>1813</v>
       </c>
@@ -33039,7 +33062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>1814</v>
       </c>
@@ -33098,7 +33121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>1815</v>
       </c>
@@ -33157,7 +33180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>1816</v>
       </c>
@@ -33216,7 +33239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>1817</v>
       </c>
@@ -33275,7 +33298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>1836</v>
       </c>
@@ -33334,7 +33357,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>1837</v>
       </c>
@@ -33393,7 +33416,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>1838</v>
       </c>
@@ -33452,7 +33475,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>1839</v>
       </c>
@@ -33511,7 +33534,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>1840</v>
       </c>
@@ -33570,7 +33593,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>1841</v>
       </c>
@@ -33629,7 +33652,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>1842</v>
       </c>
@@ -33688,7 +33711,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>1830</v>
       </c>
@@ -33747,7 +33770,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>1831</v>
       </c>
@@ -33806,7 +33829,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>1832</v>
       </c>
@@ -33865,7 +33888,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>1833</v>
       </c>
@@ -33924,7 +33947,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>1834</v>
       </c>
@@ -33983,7 +34006,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>1835</v>
       </c>
@@ -34042,7 +34065,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>1618</v>
       </c>
@@ -34101,7 +34124,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>1621</v>
       </c>
@@ -34160,7 +34183,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>1624</v>
       </c>
@@ -34219,7 +34242,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>1627</v>
       </c>
@@ -34278,7 +34301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>1630</v>
       </c>
@@ -34337,7 +34360,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>1633</v>
       </c>
@@ -34396,7 +34419,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>1636</v>
       </c>
@@ -34455,7 +34478,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>1639</v>
       </c>
@@ -34514,7 +34537,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>1642</v>
       </c>
@@ -34573,7 +34596,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>1645</v>
       </c>
@@ -34632,7 +34655,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>1648</v>
       </c>
@@ -34691,7 +34714,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>1651</v>
       </c>
@@ -34750,7 +34773,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>1654</v>
       </c>
@@ -34809,7 +34832,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>1657</v>
       </c>
@@ -34868,7 +34891,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>1660</v>
       </c>
@@ -34927,7 +34950,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>1663</v>
       </c>
@@ -34986,7 +35009,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>1666</v>
       </c>
@@ -35045,7 +35068,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>1669</v>
       </c>
@@ -35104,7 +35127,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>1672</v>
       </c>
@@ -35163,7 +35186,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>1675</v>
       </c>
@@ -35222,7 +35245,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>57</v>
       </c>
@@ -35281,7 +35304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>64</v>
       </c>
@@ -35340,7 +35363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>67</v>
       </c>
@@ -35399,7 +35422,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>70</v>
       </c>
@@ -35458,7 +35481,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>1720</v>
       </c>
@@ -35517,7 +35540,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>1723</v>
       </c>
@@ -35576,7 +35599,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>1726</v>
       </c>
@@ -35635,7 +35658,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>1729</v>
       </c>
@@ -35694,7 +35717,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>1732</v>
       </c>
@@ -35753,7 +35776,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>1735</v>
       </c>
@@ -35812,7 +35835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>1738</v>
       </c>
@@ -35871,7 +35894,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>126</v>
       </c>
@@ -35930,7 +35953,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>126</v>
       </c>
@@ -35989,7 +36012,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>130</v>
       </c>
@@ -36048,7 +36071,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>130</v>
       </c>
@@ -36107,7 +36130,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>133</v>
       </c>
@@ -36166,7 +36189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>133</v>
       </c>
@@ -36225,7 +36248,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>136</v>
       </c>
@@ -36284,7 +36307,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>136</v>
       </c>
@@ -36343,7 +36366,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>139</v>
       </c>
@@ -36402,7 +36425,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>139</v>
       </c>
@@ -36461,7 +36484,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>1741</v>
       </c>
@@ -36520,7 +36543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>1741</v>
       </c>
@@ -36579,7 +36602,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>1744</v>
       </c>
@@ -36638,7 +36661,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>1744</v>
       </c>
@@ -36697,7 +36720,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>484</v>
       </c>
@@ -36756,7 +36779,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>487</v>
       </c>
@@ -36815,7 +36838,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>490</v>
       </c>
@@ -36874,7 +36897,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>493</v>
       </c>
@@ -36933,7 +36956,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>496</v>
       </c>
@@ -36992,7 +37015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>499</v>
       </c>
@@ -37051,7 +37074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>502</v>
       </c>
@@ -37110,7 +37133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>505</v>
       </c>
@@ -37169,7 +37192,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>508</v>
       </c>
@@ -37228,7 +37251,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>511</v>
       </c>
@@ -37287,7 +37310,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>156</v>
       </c>
@@ -37346,7 +37369,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>159</v>
       </c>
@@ -37405,7 +37428,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>162</v>
       </c>
@@ -37464,7 +37487,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>165</v>
       </c>
@@ -37523,7 +37546,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>168</v>
       </c>
@@ -37582,7 +37605,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>171</v>
       </c>
@@ -37641,7 +37664,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>174</v>
       </c>
@@ -37700,7 +37723,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>177</v>
       </c>
@@ -37759,7 +37782,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>180</v>
       </c>
@@ -37818,7 +37841,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>183</v>
       </c>
@@ -37877,7 +37900,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>186</v>
       </c>
@@ -37936,7 +37959,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>189</v>
       </c>
@@ -37995,7 +38018,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>192</v>
       </c>
@@ -38054,7 +38077,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>195</v>
       </c>
@@ -38113,7 +38136,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>198</v>
       </c>
@@ -38172,7 +38195,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>201</v>
       </c>
@@ -38231,7 +38254,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>204</v>
       </c>
@@ -38290,7 +38313,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>207</v>
       </c>
@@ -38349,7 +38372,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>210</v>
       </c>
@@ -38408,7 +38431,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>213</v>
       </c>
@@ -38467,7 +38490,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>216</v>
       </c>
@@ -38526,7 +38549,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>219</v>
       </c>
@@ -38585,7 +38608,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>222</v>
       </c>
@@ -38644,7 +38667,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>225</v>
       </c>
@@ -38703,7 +38726,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>228</v>
       </c>
@@ -38762,7 +38785,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>231</v>
       </c>
@@ -38821,7 +38844,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>234</v>
       </c>
@@ -38880,7 +38903,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>237</v>
       </c>
@@ -38939,7 +38962,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>240</v>
       </c>
@@ -38998,7 +39021,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>243</v>
       </c>
@@ -39057,7 +39080,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>246</v>
       </c>
@@ -39116,7 +39139,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>249</v>
       </c>
@@ -39175,7 +39198,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>252</v>
       </c>
@@ -39234,7 +39257,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>255</v>
       </c>
@@ -39293,7 +39316,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>258</v>
       </c>
@@ -39352,7 +39375,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>261</v>
       </c>
@@ -39411,7 +39434,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>264</v>
       </c>
@@ -39470,7 +39493,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>267</v>
       </c>
@@ -39529,7 +39552,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>270</v>
       </c>
@@ -39588,7 +39611,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>273</v>
       </c>
@@ -39647,7 +39670,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>276</v>
       </c>
@@ -39706,7 +39729,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>279</v>
       </c>
@@ -39765,7 +39788,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>282</v>
       </c>
@@ -39824,7 +39847,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>285</v>
       </c>
@@ -39883,7 +39906,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>288</v>
       </c>
@@ -39942,7 +39965,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>291</v>
       </c>
@@ -40001,7 +40024,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>294</v>
       </c>
@@ -40060,7 +40083,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>297</v>
       </c>
@@ -40119,7 +40142,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>300</v>
       </c>
@@ -40178,7 +40201,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>303</v>
       </c>
@@ -40237,7 +40260,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>306</v>
       </c>
@@ -40296,7 +40319,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>309</v>
       </c>
@@ -40355,7 +40378,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>312</v>
       </c>
@@ -40414,7 +40437,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>315</v>
       </c>
@@ -40473,7 +40496,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>318</v>
       </c>
@@ -40532,7 +40555,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>321</v>
       </c>
@@ -40591,7 +40614,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>324</v>
       </c>
@@ -40650,7 +40673,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>327</v>
       </c>
@@ -40709,7 +40732,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>330</v>
       </c>
@@ -40768,7 +40791,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>331</v>
       </c>
@@ -40827,7 +40850,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>334</v>
       </c>
@@ -40886,7 +40909,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>335</v>
       </c>
@@ -40945,7 +40968,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>338</v>
       </c>
@@ -41004,7 +41027,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>341</v>
       </c>
@@ -41063,7 +41086,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>342</v>
       </c>
@@ -41122,7 +41145,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>345</v>
       </c>
@@ -41181,7 +41204,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>348</v>
       </c>
@@ -41240,7 +41263,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>351</v>
       </c>
@@ -41299,7 +41322,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>354</v>
       </c>
@@ -41358,7 +41381,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>357</v>
       </c>
@@ -41417,7 +41440,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>360</v>
       </c>
@@ -41476,7 +41499,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>363</v>
       </c>
@@ -41535,7 +41558,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>366</v>
       </c>
@@ -41594,7 +41617,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>369</v>
       </c>
@@ -41653,7 +41676,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>372</v>
       </c>
@@ -41712,7 +41735,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>375</v>
       </c>
@@ -41771,7 +41794,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>378</v>
       </c>
@@ -41830,7 +41853,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>1292</v>
       </c>
@@ -41889,7 +41912,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>1482</v>
       </c>
@@ -41948,7 +41971,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>1485</v>
       </c>
@@ -42007,7 +42030,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>1488</v>
       </c>
@@ -42066,7 +42089,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>1491</v>
       </c>
@@ -42125,7 +42148,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>1494</v>
       </c>
@@ -42184,7 +42207,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>1497</v>
       </c>
@@ -42243,7 +42266,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>1500</v>
       </c>
@@ -42302,7 +42325,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="577" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>1503</v>
       </c>
@@ -42361,7 +42384,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>1506</v>
       </c>
@@ -42420,7 +42443,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>1509</v>
       </c>
@@ -42479,7 +42502,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>1512</v>
       </c>
@@ -42538,7 +42561,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>1515</v>
       </c>
@@ -42597,7 +42620,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>1518</v>
       </c>
@@ -42656,7 +42679,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>1521</v>
       </c>
@@ -42715,7 +42738,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>1524</v>
       </c>
@@ -42774,7 +42797,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>1527</v>
       </c>
@@ -42833,7 +42856,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>1530</v>
       </c>
@@ -42892,7 +42915,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>1533</v>
       </c>
@@ -42951,7 +42974,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>1536</v>
       </c>
@@ -43010,7 +43033,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="589" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>1539</v>
       </c>
@@ -43069,7 +43092,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="590" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>1542</v>
       </c>
@@ -43128,7 +43151,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>1545</v>
       </c>
@@ -43187,7 +43210,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="592" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>1548</v>
       </c>
@@ -43246,7 +43269,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>1551</v>
       </c>
@@ -43305,7 +43328,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>1554</v>
       </c>
@@ -43364,7 +43387,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>1557</v>
       </c>
@@ -43423,7 +43446,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>1560</v>
       </c>
@@ -43482,7 +43505,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>1563</v>
       </c>
@@ -43541,7 +43564,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>1566</v>
       </c>
@@ -43600,7 +43623,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>1569</v>
       </c>
@@ -43659,7 +43682,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>1572</v>
       </c>
@@ -43718,7 +43741,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
         <v>1575</v>
       </c>
@@ -43777,7 +43800,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>1578</v>
       </c>
@@ -43836,7 +43859,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>1581</v>
       </c>
@@ -43895,7 +43918,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>1238</v>
       </c>
@@ -43954,7 +43977,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>1240</v>
       </c>
@@ -44013,7 +44036,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
         <v>1242</v>
       </c>
@@ -44072,7 +44095,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
         <v>1244</v>
       </c>
@@ -44131,7 +44154,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
         <v>1248</v>
       </c>
@@ -44190,7 +44213,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="609" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>1246</v>
       </c>
@@ -44249,7 +44272,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="610" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
         <v>1321</v>
       </c>
@@ -44308,7 +44331,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="611" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>1250</v>
       </c>
@@ -44367,7 +44390,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="612" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
         <v>1252</v>
       </c>
@@ -44426,7 +44449,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="613" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>1258</v>
       </c>
@@ -44485,7 +44508,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>1260</v>
       </c>
@@ -44544,7 +44567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="615" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
         <v>1262</v>
       </c>
@@ -44603,7 +44626,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="616" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
         <v>1256</v>
       </c>
@@ -44662,7 +44685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
         <v>1254</v>
       </c>
@@ -44721,7 +44744,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
         <v>1266</v>
       </c>
@@ -44780,7 +44803,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="619" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
         <v>1264</v>
       </c>
@@ -44839,7 +44862,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="620" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
         <v>1272</v>
       </c>
@@ -44898,7 +44921,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="621" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
         <v>1276</v>
       </c>
@@ -44957,7 +44980,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="622" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
         <v>1268</v>
       </c>
@@ -45016,7 +45039,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="623" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
         <v>1270</v>
       </c>
@@ -45075,7 +45098,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="624" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
         <v>1274</v>
       </c>
@@ -45134,7 +45157,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="625" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
         <v>1278</v>
       </c>
@@ -45193,7 +45216,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="626" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
         <v>1280</v>
       </c>
@@ -45252,7 +45275,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="627" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
         <v>1282</v>
       </c>
@@ -45311,7 +45334,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="628" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
         <v>1286</v>
       </c>
@@ -45370,7 +45393,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="629" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
         <v>1284</v>
       </c>
@@ -45429,7 +45452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
         <v>1288</v>
       </c>
@@ -45488,7 +45511,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="631" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
         <v>1295</v>
       </c>
@@ -45547,7 +45570,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="632" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
         <v>1303</v>
       </c>
@@ -45606,7 +45629,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
         <v>1305</v>
       </c>
@@ -45665,7 +45688,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
         <v>1313</v>
       </c>
@@ -45724,7 +45747,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="635" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
         <v>1307</v>
       </c>
@@ -45783,7 +45806,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="636" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
         <v>1311</v>
       </c>
@@ -45842,7 +45865,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="637" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
         <v>1309</v>
       </c>
@@ -45901,7 +45924,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="638" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
         <v>1319</v>
       </c>
@@ -45960,7 +45983,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
         <v>1315</v>
       </c>
@@ -46019,7 +46042,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="640" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
         <v>1317</v>
       </c>
@@ -46078,7 +46101,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="641" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
         <v>1329</v>
       </c>
@@ -46137,7 +46160,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="642" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
         <v>1323</v>
       </c>
@@ -46196,7 +46219,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="643" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
         <v>1325</v>
       </c>
@@ -46255,7 +46278,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="644" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
         <v>1327</v>
       </c>
@@ -46314,7 +46337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="645" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
         <v>1331</v>
       </c>
@@ -46373,7 +46396,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
         <v>1343</v>
       </c>
@@ -46432,7 +46455,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="647" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
         <v>1341</v>
       </c>
@@ -46491,7 +46514,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="648" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
         <v>1333</v>
       </c>
@@ -46550,7 +46573,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="649" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>1337</v>
       </c>
@@ -46609,7 +46632,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="650" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
         <v>1335</v>
       </c>
@@ -46668,7 +46691,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="651" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
         <v>1345</v>
       </c>
@@ -46727,7 +46750,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="652" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
         <v>1427</v>
       </c>
@@ -46786,7 +46809,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="653" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
         <v>1347</v>
       </c>
@@ -46845,7 +46868,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="654" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
         <v>1355</v>
       </c>
@@ -46904,7 +46927,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="655" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
         <v>1353</v>
       </c>
@@ -46963,7 +46986,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="656" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
         <v>1351</v>
       </c>
@@ -47022,7 +47045,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="657" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
         <v>1349</v>
       </c>
@@ -47081,7 +47104,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="658" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
         <v>1361</v>
       </c>
@@ -47140,7 +47163,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="659" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
         <v>1359</v>
       </c>
@@ -47199,7 +47222,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="660" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
         <v>1357</v>
       </c>
@@ -47258,7 +47281,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="661" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
         <v>1363</v>
       </c>
@@ -47317,7 +47340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="662" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
         <v>1367</v>
       </c>
@@ -47376,7 +47399,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="663" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
         <v>1365</v>
       </c>
@@ -47435,7 +47458,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="664" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
         <v>1377</v>
       </c>
@@ -47494,7 +47517,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="665" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
         <v>1375</v>
       </c>
@@ -47553,7 +47576,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="666" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
         <v>1369</v>
       </c>
@@ -47612,7 +47635,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="667" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
         <v>1371</v>
       </c>
@@ -47671,7 +47694,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="668" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
         <v>1373</v>
       </c>
@@ -47730,7 +47753,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="669" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
         <v>1389</v>
       </c>
@@ -47789,7 +47812,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="670" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
         <v>1387</v>
       </c>
@@ -47848,7 +47871,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="671" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
         <v>1385</v>
       </c>
@@ -47907,7 +47930,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="672" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
         <v>1383</v>
       </c>
@@ -47966,7 +47989,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="673" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
         <v>1379</v>
       </c>
@@ -48025,7 +48048,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="674" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
         <v>1381</v>
       </c>
@@ -48084,7 +48107,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="675" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
         <v>1403</v>
       </c>
@@ -48143,7 +48166,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="676" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
         <v>1401</v>
       </c>
@@ -48202,7 +48225,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="677" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
         <v>1405</v>
       </c>
@@ -48261,7 +48284,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="678" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
         <v>1399</v>
       </c>
@@ -48320,7 +48343,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="679" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
         <v>1395</v>
       </c>
@@ -48379,7 +48402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="680" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
         <v>1393</v>
       </c>
@@ -48438,7 +48461,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="681" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
         <v>1391</v>
       </c>
@@ -48497,7 +48520,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="682" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
         <v>1397</v>
       </c>
@@ -48556,7 +48579,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="683" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
         <v>1407</v>
       </c>
@@ -48615,7 +48638,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="684" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
         <v>1409</v>
       </c>
@@ -48674,7 +48697,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="685" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
         <v>1413</v>
       </c>
@@ -48733,7 +48756,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="686" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
         <v>1417</v>
       </c>
@@ -48792,7 +48815,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="687" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
         <v>1411</v>
       </c>
@@ -48851,7 +48874,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="688" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
         <v>1415</v>
       </c>
@@ -48910,7 +48933,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="689" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
         <v>1419</v>
       </c>
@@ -48969,7 +48992,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="690" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
         <v>1421</v>
       </c>
@@ -49028,7 +49051,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="691" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
         <v>1425</v>
       </c>
@@ -49087,7 +49110,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="692" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
         <v>1423</v>
       </c>
@@ -49146,7 +49169,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="693" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
         <v>1447</v>
       </c>
@@ -49205,7 +49228,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
         <v>1431</v>
       </c>
@@ -49264,7 +49287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="695" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
         <v>1429</v>
       </c>
@@ -49323,7 +49346,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="696" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
         <v>1437</v>
       </c>
@@ -49382,7 +49405,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="697" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
         <v>1435</v>
       </c>
@@ -49441,7 +49464,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
         <v>1433</v>
       </c>
@@ -49500,7 +49523,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="699" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
         <v>1445</v>
       </c>
@@ -49559,7 +49582,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="700" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
         <v>1443</v>
       </c>
@@ -49618,7 +49641,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="701" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
         <v>1439</v>
       </c>
@@ -49677,7 +49700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="702" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
         <v>1441</v>
       </c>
@@ -49736,7 +49759,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="703" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
         <v>1145</v>
       </c>
@@ -49795,7 +49818,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
         <v>1147</v>
       </c>
@@ -49854,7 +49877,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
         <v>1149</v>
       </c>
@@ -49913,7 +49936,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
         <v>1151</v>
       </c>
@@ -49972,7 +49995,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
         <v>1153</v>
       </c>
@@ -50031,7 +50054,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
         <v>1155</v>
       </c>
@@ -50090,7 +50113,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
         <v>110</v>
       </c>
@@ -50149,7 +50172,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
         <v>1226</v>
       </c>
@@ -50208,7 +50231,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
         <v>1228</v>
       </c>
@@ -50267,7 +50290,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
         <v>1230</v>
       </c>
@@ -50326,7 +50349,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
         <v>1232</v>
       </c>
@@ -50385,7 +50408,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
         <v>1339</v>
       </c>
@@ -50444,7 +50467,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
         <v>1234</v>
       </c>
@@ -50503,7 +50526,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
         <v>1236</v>
       </c>
@@ -50562,7 +50585,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
         <v>381</v>
       </c>
@@ -50621,7 +50644,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
         <v>384</v>
       </c>
@@ -50680,7 +50703,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
         <v>387</v>
       </c>
@@ -50739,7 +50762,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
         <v>390</v>
       </c>
@@ -50798,7 +50821,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="721" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
         <v>393</v>
       </c>
@@ -50857,7 +50880,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="722" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
         <v>396</v>
       </c>
@@ -50916,7 +50939,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="723" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
         <v>399</v>
       </c>
@@ -50975,7 +50998,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="724" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
         <v>402</v>
       </c>
@@ -51034,7 +51057,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="725" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
         <v>405</v>
       </c>
@@ -51093,7 +51116,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
         <v>408</v>
       </c>
@@ -51152,7 +51175,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
         <v>411</v>
       </c>
@@ -51211,7 +51234,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
         <v>414</v>
       </c>
@@ -51270,7 +51293,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
         <v>417</v>
       </c>
@@ -51329,7 +51352,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
         <v>420</v>
       </c>
@@ -51388,7 +51411,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="731" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
         <v>423</v>
       </c>
@@ -51447,7 +51470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
         <v>426</v>
       </c>
@@ -51506,7 +51529,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="733" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
         <v>429</v>
       </c>
@@ -51565,7 +51588,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
         <v>432</v>
       </c>
@@ -51624,7 +51647,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
         <v>435</v>
       </c>
@@ -51683,7 +51706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
         <v>438</v>
       </c>
@@ -51742,7 +51765,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="737" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
         <v>441</v>
       </c>
@@ -51801,7 +51824,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="738" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
         <v>444</v>
       </c>
@@ -51860,7 +51883,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="739" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
         <v>447</v>
       </c>
@@ -51919,7 +51942,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="740" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
         <v>450</v>
       </c>
@@ -51978,7 +52001,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="741" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
         <v>453</v>
       </c>
@@ -52037,7 +52060,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="742" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
         <v>456</v>
       </c>
@@ -52096,7 +52119,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="743" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
         <v>459</v>
       </c>
@@ -52155,7 +52178,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="744" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
         <v>462</v>
       </c>
@@ -52214,7 +52237,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="745" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
         <v>465</v>
       </c>
@@ -52273,7 +52296,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="746" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
         <v>468</v>
       </c>
@@ -52332,7 +52355,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="747" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
         <v>471</v>
       </c>
@@ -52391,7 +52414,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="748" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
         <v>474</v>
       </c>
@@ -52450,7 +52473,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="749" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
         <v>477</v>
       </c>

--- a/Uploads/Data/SampleEventWQ_TEMPLATE.xlsx
+++ b/Uploads/Data/SampleEventWQ_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\SQL-Database-Corrections\Uploads\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C2BB16-A063-4547-BA86-A4096B38EF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A46B1D8-6D8D-4CE2-9D33-C50F5CA3669A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2108D022-863A-4DDA-9361-349A7F55884E}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11502" uniqueCount="2246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11520" uniqueCount="2249">
   <si>
     <t>SampleEventWQID</t>
   </si>
@@ -5480,9 +5480,6 @@
     <t>DataType</t>
   </si>
   <si>
-    <t>RCRT</t>
-  </si>
-  <si>
     <t>2. Enter the four-letter data type (i.e. RCRT), the 2-letter estuary code, and the station number for the data in ColA-C.</t>
   </si>
   <si>
@@ -6798,6 +6795,18 @@
   </si>
   <si>
     <t>0617</t>
+  </si>
+  <si>
+    <t>COLL</t>
+  </si>
+  <si>
+    <t>0821</t>
+  </si>
+  <si>
+    <t>0838</t>
+  </si>
+  <si>
+    <t>pH not recorded</t>
   </si>
 </sst>
 </file>
@@ -7133,8 +7142,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}" name="Table2" displayName="Table2" ref="A8:U11" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A8:U11" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}" name="Table2" displayName="Table2" ref="A8:U14" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A8:U14" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}"/>
   <tableColumns count="21">
     <tableColumn id="20" xr3:uid="{FC1F9811-332A-4FBC-A60F-2ABD60672380}" name="DataType" dataDxfId="42"/>
     <tableColumn id="1" xr3:uid="{144FE1A1-5D1F-48A8-B4E0-C6821BF0BD54}" name="Date" dataDxfId="41"/>
@@ -7163,8 +7172,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}" name="Table3" displayName="Table3" ref="A1:X4" totalsRowShown="0">
-  <autoFilter ref="A1:X4" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}" name="Table3" displayName="Table3" ref="A1:X7" totalsRowShown="0">
+  <autoFilter ref="A1:X7" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{76D7ABEC-2288-4626-9B6A-9D01F60F39E0}" name="SampleEventWQID" dataDxfId="21">
       <calculatedColumnFormula array="1">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[StationNumber]=Instructions!D9)*(Instructions!B9&gt;Table1[StartDate])*(Instructions!B9&lt;Table1[EndDate]),0),1),"_1_0",Instructions!E9)</calculatedColumnFormula>
@@ -7553,10 +7562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00D894D-DF5E-46E1-A945-092FA5E16BBD}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7610,7 +7619,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -7623,7 +7632,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -7649,7 +7658,7 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7674,7 +7683,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>1802</v>
@@ -7727,7 +7736,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>1806</v>
+        <v>2245</v>
       </c>
       <c r="B9" s="3">
         <v>39525</v>
@@ -7767,18 +7776,20 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="3">
-        <v>45643</v>
+        <v>45645</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="S9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>2248</v>
+      </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>1806</v>
+        <v>2245</v>
       </c>
       <c r="B10" s="3">
         <v>39525</v>
@@ -7818,18 +7829,20 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="3">
-        <v>45643</v>
+        <v>45645</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="S10" s="2"/>
+      <c r="S10" s="2" t="s">
+        <v>2248</v>
+      </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>1806</v>
+        <v>2245</v>
       </c>
       <c r="B11" s="3">
         <v>39525</v>
@@ -7869,14 +7882,175 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="3">
-        <v>45643</v>
+        <v>45645</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="S11" s="2"/>
+      <c r="S11" s="2" t="s">
+        <v>2248</v>
+      </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B12" s="3">
+        <v>39800</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>2246</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="J12" s="2">
+        <v>24.9</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
+        <v>9.52</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3">
+        <v>45645</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B13" s="3">
+        <v>39800</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>2247</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I13" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J13" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
+        <v>10.51</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3">
+        <v>45645</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B14" s="3">
+        <v>39800</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3">
+        <v>45645</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7899,7 +8073,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8007,11 +8181,11 @@
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[StationNumber]=Instructions!D9)*(Instructions!B9&gt;Table1[StartDate])*(Instructions!B9&lt;Table1[EndDate]),0),1),"_1_0",Instructions!E9)</f>
-        <v>TBRCRT_20080318_1_0278_1_01</v>
+        <v>TBCOLL_20080318_1_0278_1_01</v>
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[StationNumber]=Instructions!D9)*(Instructions!B9&gt;Table1[StartDate])*(Instructions!B9&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>TBRCRT_20080318_1_0278_1</v>
+        <v>TBCOLL_20080318_1_0278_1</v>
       </c>
       <c r="C2">
         <f>IF(Instructions!I9&lt;&gt;"",Instructions!I9,"NULL")</f>
@@ -8055,7 +8229,7 @@
       </c>
       <c r="M2" s="1">
         <f>Instructions!Q9</f>
-        <v>45643</v>
+        <v>45645</v>
       </c>
       <c r="N2" t="str">
         <f>Instructions!R9</f>
@@ -8079,7 +8253,7 @@
       </c>
       <c r="S2" t="str">
         <f>IF(Instructions!S9&lt;&gt;"",Instructions!S9,"NULL")</f>
-        <v>NULL</v>
+        <v>pH not recorded</v>
       </c>
       <c r="T2" t="str">
         <f>"NULL"</f>
@@ -8105,11 +8279,11 @@
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="str" cm="1">
         <f t="array" ref="A3">_xlfn.CONCAT(Instructions!C10,Instructions!A10,"_",TEXT(Instructions!B10,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C10)*(Table1[StationNumber]=Instructions!D10)*(Instructions!B10&gt;Table1[StartDate])*(Instructions!B10&lt;Table1[EndDate]),0),1),"_1_0",Instructions!E10)</f>
-        <v>TBRCRT_20080318_1_0280_1_01</v>
+        <v>TBCOLL_20080318_1_0280_1_01</v>
       </c>
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3">_xlfn.CONCAT(Instructions!C10,Instructions!A10,"_",TEXT(Instructions!B10,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C10)*(Table1[StationNumber]=Instructions!D10)*(Instructions!B10&gt;Table1[StartDate])*(Instructions!B10&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>TBRCRT_20080318_1_0280_1</v>
+        <v>TBCOLL_20080318_1_0280_1</v>
       </c>
       <c r="C3">
         <f>IF(Instructions!I10&lt;&gt;"",Instructions!I10,"NULL")</f>
@@ -8148,19 +8322,19 @@
         <v>NULL</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L4" si="0">"Entered"</f>
+        <f t="shared" ref="L3:L7" si="0">"Entered"</f>
         <v>Entered</v>
       </c>
       <c r="M3" s="1">
         <f>Instructions!Q10</f>
-        <v>45643</v>
+        <v>45645</v>
       </c>
       <c r="N3" t="str">
         <f>Instructions!R10</f>
         <v>Erica Williams</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:R4" si="1">"NULL"</f>
+        <f t="shared" ref="O3:R7" si="1">"NULL"</f>
         <v>NULL</v>
       </c>
       <c r="P3" t="str">
@@ -8177,10 +8351,10 @@
       </c>
       <c r="S3" t="str">
         <f>IF(Instructions!S10&lt;&gt;"",Instructions!S10,"NULL")</f>
-        <v>NULL</v>
+        <v>pH not recorded</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" ref="T3:T4" si="2">"NULL"</f>
+        <f t="shared" ref="T3:T7" si="2">"NULL"</f>
         <v>NULL</v>
       </c>
       <c r="U3" t="str">
@@ -8203,11 +8377,11 @@
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="str" cm="1">
         <f t="array" ref="A4">_xlfn.CONCAT(Instructions!C11,Instructions!A11,"_",TEXT(Instructions!B11,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C11)*(Table1[StationNumber]=Instructions!D11)*(Instructions!B11&gt;Table1[StartDate])*(Instructions!B11&lt;Table1[EndDate]),0),1),"_1_0",Instructions!E11)</f>
-        <v>TBRCRT_20080318_1_0282_1_01</v>
+        <v>TBCOLL_20080318_1_0282_1_01</v>
       </c>
       <c r="B4" t="str" cm="1">
         <f t="array" ref="B4">_xlfn.CONCAT(Instructions!C11,Instructions!A11,"_",TEXT(Instructions!B11,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C11)*(Table1[StationNumber]=Instructions!D11)*(Instructions!B11&gt;Table1[StartDate])*(Instructions!B11&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>TBRCRT_20080318_1_0282_1</v>
+        <v>TBCOLL_20080318_1_0282_1</v>
       </c>
       <c r="C4">
         <f>IF(Instructions!I11&lt;&gt;"",Instructions!I11,"NULL")</f>
@@ -8251,7 +8425,7 @@
       </c>
       <c r="M4" s="1">
         <f>Instructions!Q11</f>
-        <v>45643</v>
+        <v>45645</v>
       </c>
       <c r="N4" t="str">
         <f>Instructions!R11</f>
@@ -8275,7 +8449,7 @@
       </c>
       <c r="S4" t="str">
         <f>IF(Instructions!S11&lt;&gt;"",Instructions!S11,"NULL")</f>
-        <v>NULL</v>
+        <v>pH not recorded</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="2"/>
@@ -8295,6 +8469,300 @@
       </c>
       <c r="X4" t="str">
         <f>IF(Instructions!U11&lt;&gt;"",Instructions!U11,"NULL")</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="str" cm="1">
+        <f t="array" ref="A5">_xlfn.CONCAT(Instructions!C12,Instructions!A12,"_",TEXT(Instructions!B12,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C12)*(Table1[StationNumber]=Instructions!D12)*(Instructions!B12&gt;Table1[StartDate])*(Instructions!B12&lt;Table1[EndDate]),0),1),"_1_0",Instructions!E12)</f>
+        <v>TBCOLL_20081218_1_0278_1_01</v>
+      </c>
+      <c r="B5" t="str" cm="1">
+        <f t="array" ref="B5">_xlfn.CONCAT(Instructions!C12,Instructions!A12,"_",TEXT(Instructions!B12,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C12)*(Table1[StationNumber]=Instructions!D12)*(Instructions!B12&gt;Table1[StartDate])*(Instructions!B12&lt;Table1[EndDate]),0),1),"_1")</f>
+        <v>TBCOLL_20081218_1_0278_1</v>
+      </c>
+      <c r="C5">
+        <f>IF(Instructions!I12&lt;&gt;"",Instructions!I12,"NULL")</f>
+        <v>18.8</v>
+      </c>
+      <c r="D5">
+        <f>IF(Instructions!J12&lt;&gt;"",Instructions!J12,"NULL")</f>
+        <v>24.9</v>
+      </c>
+      <c r="E5">
+        <f>IF(Instructions!L12&lt;&gt;"",Instructions!L12,"NULL")</f>
+        <v>9.52</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(Instructions!K12&lt;&gt;"",Instructions!K12,"NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="G5">
+        <f>IF(Instructions!G12&lt;&gt;"",Instructions!G12,"NULL")</f>
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <f>IF(Instructions!H12&lt;&gt;"",Instructions!H12,"NULL")</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <f>IF(Instructions!N12&lt;&gt;"",Instructions!N12,"NULL")</f>
+        <v>0.5</v>
+      </c>
+      <c r="J5" t="str">
+        <f>IF(Instructions!O12&lt;&gt;"",Instructions!O12,"NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(Instructions!P12&lt;&gt;"",Instructions!P12,"NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>Entered</v>
+      </c>
+      <c r="M5" s="1">
+        <f>Instructions!Q12</f>
+        <v>45645</v>
+      </c>
+      <c r="N5" t="str">
+        <f>Instructions!R12</f>
+        <v>Erica Williams</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+      <c r="S5" t="str">
+        <f>IF(Instructions!S12&lt;&gt;"",Instructions!S12,"NULL")</f>
+        <v>pH not recorded</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+      <c r="U5" t="str">
+        <f>IF(Instructions!F12&lt;&gt;"",Instructions!F12,"NULL")</f>
+        <v>0821</v>
+      </c>
+      <c r="V5" t="str">
+        <f>IF(Instructions!M12&lt;&gt;"",Instructions!M12,"NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="W5" t="str">
+        <f>IF(Instructions!T12&lt;&gt;"",Instructions!T12,"NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="X5" t="str">
+        <f>IF(Instructions!U12&lt;&gt;"",Instructions!U12,"NULL")</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="str" cm="1">
+        <f t="array" ref="A6">_xlfn.CONCAT(Instructions!C13,Instructions!A13,"_",TEXT(Instructions!B13,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C13)*(Table1[StationNumber]=Instructions!D13)*(Instructions!B13&gt;Table1[StartDate])*(Instructions!B13&lt;Table1[EndDate]),0),1),"_1_0",Instructions!E13)</f>
+        <v>TBCOLL_20081218_1_0280_1_01</v>
+      </c>
+      <c r="B6" t="str" cm="1">
+        <f t="array" ref="B6">_xlfn.CONCAT(Instructions!C13,Instructions!A13,"_",TEXT(Instructions!B13,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C13)*(Table1[StationNumber]=Instructions!D13)*(Instructions!B13&gt;Table1[StartDate])*(Instructions!B13&lt;Table1[EndDate]),0),1),"_1")</f>
+        <v>TBCOLL_20081218_1_0280_1</v>
+      </c>
+      <c r="C6">
+        <f>IF(Instructions!I13&lt;&gt;"",Instructions!I13,"NULL")</f>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D6">
+        <f>IF(Instructions!J13&lt;&gt;"",Instructions!J13,"NULL")</f>
+        <v>25.9</v>
+      </c>
+      <c r="E6">
+        <f>IF(Instructions!L13&lt;&gt;"",Instructions!L13,"NULL")</f>
+        <v>10.51</v>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(Instructions!K13&lt;&gt;"",Instructions!K13,"NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="G6">
+        <f>IF(Instructions!G13&lt;&gt;"",Instructions!G13,"NULL")</f>
+        <v>0.25</v>
+      </c>
+      <c r="H6">
+        <f>IF(Instructions!H13&lt;&gt;"",Instructions!H13,"NULL")</f>
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <f>IF(Instructions!N13&lt;&gt;"",Instructions!N13,"NULL")</f>
+        <v>0.25</v>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(Instructions!O13&lt;&gt;"",Instructions!O13,"NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(Instructions!P13&lt;&gt;"",Instructions!P13,"NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>Entered</v>
+      </c>
+      <c r="M6" s="1">
+        <f>Instructions!Q13</f>
+        <v>45645</v>
+      </c>
+      <c r="N6" t="str">
+        <f>Instructions!R13</f>
+        <v>Erica Williams</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+      <c r="S6" t="str">
+        <f>IF(Instructions!S13&lt;&gt;"",Instructions!S13,"NULL")</f>
+        <v>pH not recorded</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+      <c r="U6" t="str">
+        <f>IF(Instructions!F13&lt;&gt;"",Instructions!F13,"NULL")</f>
+        <v>0838</v>
+      </c>
+      <c r="V6" t="str">
+        <f>IF(Instructions!M13&lt;&gt;"",Instructions!M13,"NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="W6" t="str">
+        <f>IF(Instructions!T13&lt;&gt;"",Instructions!T13,"NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="X6" t="str">
+        <f>IF(Instructions!U13&lt;&gt;"",Instructions!U13,"NULL")</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="str" cm="1">
+        <f t="array" ref="A7">_xlfn.CONCAT(Instructions!C14,Instructions!A14,"_",TEXT(Instructions!B14,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C14)*(Table1[StationNumber]=Instructions!D14)*(Instructions!B14&gt;Table1[StartDate])*(Instructions!B14&lt;Table1[EndDate]),0),1),"_1_0",Instructions!E14)</f>
+        <v>TBCOLL_20081218_1_0282_1_01</v>
+      </c>
+      <c r="B7" t="str" cm="1">
+        <f t="array" ref="B7">_xlfn.CONCAT(Instructions!C14,Instructions!A14,"_",TEXT(Instructions!B14,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C14)*(Table1[StationNumber]=Instructions!D14)*(Instructions!B14&gt;Table1[StartDate])*(Instructions!B14&lt;Table1[EndDate]),0),1),"_1")</f>
+        <v>TBCOLL_20081218_1_0282_1</v>
+      </c>
+      <c r="C7">
+        <f>IF(Instructions!I14&lt;&gt;"",Instructions!I14,"NULL")</f>
+        <v>19.3</v>
+      </c>
+      <c r="D7">
+        <f>IF(Instructions!J14&lt;&gt;"",Instructions!J14,"NULL")</f>
+        <v>27.3</v>
+      </c>
+      <c r="E7">
+        <f>IF(Instructions!L14&lt;&gt;"",Instructions!L14,"NULL")</f>
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(Instructions!K14&lt;&gt;"",Instructions!K14,"NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="G7">
+        <f>IF(Instructions!G14&lt;&gt;"",Instructions!G14,"NULL")</f>
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <f>IF(Instructions!H14&lt;&gt;"",Instructions!H14,"NULL")</f>
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <f>IF(Instructions!N14&lt;&gt;"",Instructions!N14,"NULL")</f>
+        <v>0.5</v>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(Instructions!O14&lt;&gt;"",Instructions!O14,"NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(Instructions!P14&lt;&gt;"",Instructions!P14,"NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>Entered</v>
+      </c>
+      <c r="M7" s="1">
+        <f>Instructions!Q14</f>
+        <v>45645</v>
+      </c>
+      <c r="N7" t="str">
+        <f>Instructions!R14</f>
+        <v>Erica Williams</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+      <c r="S7" t="str">
+        <f>IF(Instructions!S14&lt;&gt;"",Instructions!S14,"NULL")</f>
+        <v>pH not recorded</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+      <c r="U7" t="str">
+        <f>IF(Instructions!F14&lt;&gt;"",Instructions!F14,"NULL")</f>
+        <v>0900</v>
+      </c>
+      <c r="V7" t="str">
+        <f>IF(Instructions!M14&lt;&gt;"",Instructions!M14,"NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="W7" t="str">
+        <f>IF(Instructions!T14&lt;&gt;"",Instructions!T14,"NULL")</f>
+        <v>NULL</v>
+      </c>
+      <c r="X7" t="str">
+        <f>IF(Instructions!U14&lt;&gt;"",Instructions!U14,"NULL")</f>
         <v>NULL</v>
       </c>
     </row>
@@ -8402,7 +8870,7 @@
     </row>
     <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
@@ -8461,7 +8929,7 @@
     </row>
     <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>46</v>
@@ -8520,7 +8988,7 @@
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>46</v>
@@ -8579,7 +9047,7 @@
     </row>
     <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>46</v>
@@ -8638,7 +9106,7 @@
     </row>
     <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
@@ -8697,7 +9165,7 @@
     </row>
     <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>46</v>
@@ -8756,7 +9224,7 @@
     </row>
     <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>46</v>
@@ -8815,7 +9283,7 @@
     </row>
     <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>46</v>
@@ -8874,7 +9342,7 @@
     </row>
     <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>46</v>
@@ -8933,7 +9401,7 @@
     </row>
     <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>46</v>
@@ -8992,7 +9460,7 @@
     </row>
     <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>46</v>
@@ -9051,7 +9519,7 @@
     </row>
     <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>46</v>
@@ -9110,7 +9578,7 @@
     </row>
     <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>46</v>
@@ -9169,7 +9637,7 @@
     </row>
     <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>46</v>
@@ -9228,7 +9696,7 @@
     </row>
     <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>46</v>
@@ -9287,7 +9755,7 @@
     </row>
     <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
@@ -9346,7 +9814,7 @@
     </row>
     <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>46</v>
@@ -9405,7 +9873,7 @@
     </row>
     <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>46</v>
@@ -9464,7 +9932,7 @@
     </row>
     <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>46</v>
@@ -9523,7 +9991,7 @@
     </row>
     <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>46</v>
@@ -9582,7 +10050,7 @@
     </row>
     <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>46</v>
@@ -9641,7 +10109,7 @@
     </row>
     <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>46</v>
@@ -9700,7 +10168,7 @@
     </row>
     <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>46</v>
@@ -9759,7 +10227,7 @@
     </row>
     <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>46</v>
@@ -9818,7 +10286,7 @@
     </row>
     <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>46</v>
@@ -9877,7 +10345,7 @@
     </row>
     <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>46</v>
@@ -9936,7 +10404,7 @@
     </row>
     <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>46</v>
@@ -9995,7 +10463,7 @@
     </row>
     <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>46</v>
@@ -10054,7 +10522,7 @@
     </row>
     <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>46</v>
@@ -10113,7 +10581,7 @@
     </row>
     <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>46</v>
@@ -10172,7 +10640,7 @@
     </row>
     <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
@@ -10231,7 +10699,7 @@
     </row>
     <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>46</v>
@@ -10290,7 +10758,7 @@
     </row>
     <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>46</v>
@@ -10349,7 +10817,7 @@
     </row>
     <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>46</v>
@@ -10408,7 +10876,7 @@
     </row>
     <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>46</v>
@@ -10467,7 +10935,7 @@
     </row>
     <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>46</v>
@@ -10526,7 +10994,7 @@
     </row>
     <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>46</v>
@@ -10585,7 +11053,7 @@
     </row>
     <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>46</v>
@@ -10644,7 +11112,7 @@
     </row>
     <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>46</v>
@@ -10703,7 +11171,7 @@
     </row>
     <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>46</v>
@@ -10762,7 +11230,7 @@
     </row>
     <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>46</v>
@@ -10821,7 +11289,7 @@
     </row>
     <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>46</v>
@@ -10880,7 +11348,7 @@
     </row>
     <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>46</v>
@@ -10939,7 +11407,7 @@
     </row>
     <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>46</v>
@@ -10998,7 +11466,7 @@
     </row>
     <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>46</v>
@@ -11057,7 +11525,7 @@
     </row>
     <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -11116,7 +11584,7 @@
     </row>
     <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>46</v>
@@ -11175,7 +11643,7 @@
     </row>
     <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>46</v>
@@ -11234,7 +11702,7 @@
     </row>
     <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>46</v>
@@ -11293,7 +11761,7 @@
     </row>
     <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>46</v>
@@ -11352,7 +11820,7 @@
     </row>
     <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>46</v>
@@ -11411,7 +11879,7 @@
     </row>
     <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>46</v>
@@ -11470,7 +11938,7 @@
     </row>
     <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>46</v>
@@ -11529,7 +11997,7 @@
     </row>
     <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>46</v>
@@ -11588,7 +12056,7 @@
     </row>
     <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>46</v>
@@ -11647,7 +12115,7 @@
     </row>
     <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>46</v>
@@ -11706,7 +12174,7 @@
     </row>
     <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>46</v>
@@ -11765,7 +12233,7 @@
     </row>
     <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>46</v>
@@ -11824,7 +12292,7 @@
     </row>
     <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>46</v>
@@ -11883,7 +12351,7 @@
     </row>
     <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>46</v>
@@ -11942,7 +12410,7 @@
     </row>
     <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>46</v>
@@ -12001,7 +12469,7 @@
     </row>
     <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>46</v>
@@ -12060,7 +12528,7 @@
     </row>
     <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>46</v>
@@ -12119,7 +12587,7 @@
     </row>
     <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>46</v>
@@ -12178,7 +12646,7 @@
     </row>
     <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>46</v>
@@ -12237,7 +12705,7 @@
     </row>
     <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>46</v>
@@ -12296,7 +12764,7 @@
     </row>
     <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>46</v>
@@ -12355,7 +12823,7 @@
     </row>
     <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>46</v>
@@ -12414,7 +12882,7 @@
     </row>
     <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>46</v>
@@ -12473,7 +12941,7 @@
     </row>
     <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>46</v>
@@ -12532,7 +13000,7 @@
     </row>
     <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>46</v>
@@ -12591,7 +13059,7 @@
     </row>
     <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>46</v>
@@ -12650,7 +13118,7 @@
     </row>
     <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>46</v>
@@ -12709,7 +13177,7 @@
     </row>
     <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>46</v>
@@ -12768,7 +13236,7 @@
     </row>
     <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>46</v>
@@ -12827,7 +13295,7 @@
     </row>
     <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>46</v>
@@ -12886,7 +13354,7 @@
     </row>
     <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>46</v>
@@ -12945,7 +13413,7 @@
     </row>
     <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>46</v>
@@ -13004,7 +13472,7 @@
     </row>
     <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>46</v>
@@ -13063,7 +13531,7 @@
     </row>
     <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>46</v>
@@ -13122,7 +13590,7 @@
     </row>
     <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>46</v>
@@ -13181,7 +13649,7 @@
     </row>
     <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>46</v>
@@ -13240,7 +13708,7 @@
     </row>
     <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>46</v>
@@ -13299,7 +13767,7 @@
     </row>
     <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>46</v>
@@ -13358,7 +13826,7 @@
     </row>
     <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>46</v>
@@ -13417,7 +13885,7 @@
     </row>
     <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>46</v>
@@ -13476,7 +13944,7 @@
     </row>
     <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>46</v>
@@ -13535,7 +14003,7 @@
     </row>
     <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>46</v>
@@ -13594,7 +14062,7 @@
     </row>
     <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>46</v>
@@ -13653,7 +14121,7 @@
     </row>
     <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>46</v>
@@ -13712,7 +14180,7 @@
     </row>
     <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>46</v>
@@ -13771,7 +14239,7 @@
     </row>
     <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>46</v>
@@ -13830,7 +14298,7 @@
     </row>
     <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>46</v>
@@ -13889,7 +14357,7 @@
     </row>
     <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>46</v>
@@ -13948,7 +14416,7 @@
     </row>
     <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>46</v>
@@ -14007,7 +14475,7 @@
     </row>
     <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>46</v>
@@ -14066,7 +14534,7 @@
     </row>
     <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>46</v>
@@ -14125,7 +14593,7 @@
     </row>
     <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>46</v>
@@ -14184,7 +14652,7 @@
     </row>
     <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>46</v>
@@ -14243,7 +14711,7 @@
     </row>
     <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>46</v>
@@ -14302,7 +14770,7 @@
     </row>
     <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>46</v>
@@ -14361,7 +14829,7 @@
     </row>
     <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>46</v>
@@ -14420,7 +14888,7 @@
     </row>
     <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>46</v>
@@ -14479,7 +14947,7 @@
     </row>
     <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>46</v>
@@ -14538,7 +15006,7 @@
     </row>
     <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>46</v>
@@ -14597,7 +15065,7 @@
     </row>
     <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>46</v>
@@ -14656,7 +15124,7 @@
     </row>
     <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>46</v>
@@ -14715,7 +15183,7 @@
     </row>
     <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>46</v>
@@ -14774,7 +15242,7 @@
     </row>
     <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>46</v>
@@ -14833,7 +15301,7 @@
     </row>
     <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>46</v>
@@ -14892,7 +15360,7 @@
     </row>
     <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>46</v>
@@ -14951,7 +15419,7 @@
     </row>
     <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>46</v>
@@ -15010,7 +15478,7 @@
     </row>
     <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>46</v>
@@ -15069,7 +15537,7 @@
     </row>
     <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>46</v>
@@ -15128,7 +15596,7 @@
     </row>
     <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>46</v>
@@ -15187,7 +15655,7 @@
     </row>
     <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>46</v>
@@ -15246,7 +15714,7 @@
     </row>
     <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>46</v>
@@ -15305,7 +15773,7 @@
     </row>
     <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>46</v>
@@ -15364,7 +15832,7 @@
     </row>
     <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>46</v>
@@ -15423,7 +15891,7 @@
     </row>
     <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>46</v>
@@ -15482,7 +15950,7 @@
     </row>
     <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>46</v>
@@ -15541,7 +16009,7 @@
     </row>
     <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>46</v>
@@ -15600,7 +16068,7 @@
     </row>
     <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>46</v>
@@ -15659,7 +16127,7 @@
     </row>
     <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>46</v>
@@ -15718,7 +16186,7 @@
     </row>
     <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>46</v>
@@ -15777,7 +16245,7 @@
     </row>
     <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>46</v>
@@ -15836,7 +16304,7 @@
     </row>
     <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>46</v>
@@ -15895,7 +16363,7 @@
     </row>
     <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>46</v>
@@ -15954,7 +16422,7 @@
     </row>
     <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>46</v>
@@ -16013,7 +16481,7 @@
     </row>
     <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>46</v>
@@ -16072,7 +16540,7 @@
     </row>
     <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>46</v>
@@ -16131,7 +16599,7 @@
     </row>
     <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>46</v>
@@ -16190,7 +16658,7 @@
     </row>
     <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>46</v>
@@ -16249,7 +16717,7 @@
     </row>
     <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>46</v>
@@ -16308,7 +16776,7 @@
     </row>
     <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>46</v>
@@ -16367,7 +16835,7 @@
     </row>
     <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>46</v>
@@ -16426,7 +16894,7 @@
     </row>
     <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>46</v>
@@ -16485,7 +16953,7 @@
     </row>
     <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>46</v>
@@ -16544,7 +17012,7 @@
     </row>
     <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>46</v>
@@ -16603,7 +17071,7 @@
     </row>
     <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>46</v>
@@ -16662,7 +17130,7 @@
     </row>
     <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>46</v>
@@ -16721,7 +17189,7 @@
     </row>
     <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>46</v>
@@ -16780,7 +17248,7 @@
     </row>
     <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>46</v>
@@ -16839,7 +17307,7 @@
     </row>
     <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>46</v>
@@ -16898,7 +17366,7 @@
     </row>
     <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>46</v>
@@ -16957,7 +17425,7 @@
     </row>
     <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>46</v>
@@ -17016,7 +17484,7 @@
     </row>
     <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>46</v>
@@ -17075,7 +17543,7 @@
     </row>
     <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>46</v>
@@ -17134,7 +17602,7 @@
     </row>
     <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>46</v>
@@ -17193,7 +17661,7 @@
     </row>
     <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>46</v>
@@ -17252,7 +17720,7 @@
     </row>
     <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>46</v>
@@ -17311,7 +17779,7 @@
     </row>
     <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>46</v>
@@ -17370,7 +17838,7 @@
     </row>
     <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>46</v>
@@ -17429,7 +17897,7 @@
     </row>
     <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>46</v>
@@ -17488,7 +17956,7 @@
     </row>
     <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>46</v>
@@ -17547,7 +18015,7 @@
     </row>
     <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>46</v>
@@ -17606,7 +18074,7 @@
     </row>
     <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>46</v>
@@ -17665,7 +18133,7 @@
     </row>
     <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>46</v>
@@ -17724,7 +18192,7 @@
     </row>
     <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>46</v>
@@ -17783,7 +18251,7 @@
     </row>
     <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>46</v>
@@ -17842,7 +18310,7 @@
     </row>
     <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>46</v>
@@ -17901,7 +18369,7 @@
     </row>
     <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>46</v>
@@ -17960,7 +18428,7 @@
     </row>
     <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>46</v>
@@ -18019,7 +18487,7 @@
     </row>
     <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>46</v>
@@ -18078,7 +18546,7 @@
     </row>
     <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>46</v>
@@ -18137,7 +18605,7 @@
     </row>
     <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>46</v>
@@ -18196,7 +18664,7 @@
     </row>
     <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>46</v>
@@ -18255,7 +18723,7 @@
     </row>
     <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>46</v>
@@ -18314,7 +18782,7 @@
     </row>
     <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>46</v>
@@ -18373,7 +18841,7 @@
     </row>
     <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>46</v>
@@ -18432,7 +18900,7 @@
     </row>
     <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>46</v>
@@ -18491,7 +18959,7 @@
     </row>
     <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>46</v>
@@ -18550,7 +19018,7 @@
     </row>
     <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>46</v>
@@ -18609,7 +19077,7 @@
     </row>
     <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>46</v>
@@ -18668,7 +19136,7 @@
     </row>
     <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>46</v>
@@ -18727,7 +19195,7 @@
     </row>
     <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>46</v>
@@ -18786,7 +19254,7 @@
     </row>
     <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>46</v>
@@ -18845,7 +19313,7 @@
     </row>
     <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>46</v>
@@ -18904,7 +19372,7 @@
     </row>
     <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>46</v>
@@ -18963,7 +19431,7 @@
     </row>
     <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>46</v>
@@ -19022,7 +19490,7 @@
     </row>
     <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>46</v>
@@ -19081,7 +19549,7 @@
     </row>
     <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>46</v>
@@ -19140,7 +19608,7 @@
     </row>
     <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>46</v>
@@ -19199,7 +19667,7 @@
     </row>
     <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>46</v>
@@ -19258,7 +19726,7 @@
     </row>
     <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>46</v>
@@ -19317,7 +19785,7 @@
     </row>
     <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>46</v>
@@ -19376,7 +19844,7 @@
     </row>
     <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>46</v>
@@ -19435,7 +19903,7 @@
     </row>
     <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>46</v>
@@ -19494,7 +19962,7 @@
     </row>
     <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>46</v>
@@ -19553,7 +20021,7 @@
     </row>
     <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>46</v>
@@ -19612,7 +20080,7 @@
     </row>
     <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>46</v>
@@ -19671,7 +20139,7 @@
     </row>
     <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>46</v>
@@ -19730,7 +20198,7 @@
     </row>
     <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>46</v>
@@ -19789,7 +20257,7 @@
     </row>
     <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>46</v>
@@ -19848,7 +20316,7 @@
     </row>
     <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>46</v>
@@ -19907,7 +20375,7 @@
     </row>
     <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>46</v>
@@ -19966,7 +20434,7 @@
     </row>
     <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>46</v>
@@ -20025,7 +20493,7 @@
     </row>
     <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>46</v>
@@ -20084,7 +20552,7 @@
     </row>
     <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>46</v>
@@ -20143,7 +20611,7 @@
     </row>
     <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>46</v>
@@ -20202,7 +20670,7 @@
     </row>
     <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>46</v>
@@ -20261,7 +20729,7 @@
     </row>
     <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>46</v>
@@ -20320,7 +20788,7 @@
     </row>
     <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>46</v>
@@ -20379,7 +20847,7 @@
     </row>
     <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>46</v>
@@ -20438,7 +20906,7 @@
     </row>
     <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>46</v>
@@ -20497,7 +20965,7 @@
     </row>
     <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>46</v>
@@ -20556,7 +21024,7 @@
     </row>
     <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>46</v>
@@ -20615,7 +21083,7 @@
     </row>
     <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>46</v>
@@ -20674,7 +21142,7 @@
     </row>
     <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>46</v>
@@ -20733,7 +21201,7 @@
     </row>
     <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>46</v>
@@ -20792,7 +21260,7 @@
     </row>
     <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>46</v>
@@ -20851,7 +21319,7 @@
     </row>
     <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>46</v>
@@ -20910,7 +21378,7 @@
     </row>
     <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>46</v>
@@ -20969,7 +21437,7 @@
     </row>
     <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>46</v>
@@ -21028,7 +21496,7 @@
     </row>
     <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>46</v>
@@ -21087,7 +21555,7 @@
     </row>
     <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>46</v>
@@ -21146,7 +21614,7 @@
     </row>
     <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>46</v>
@@ -21205,7 +21673,7 @@
     </row>
     <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>46</v>
@@ -21264,7 +21732,7 @@
     </row>
     <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>46</v>
@@ -21323,7 +21791,7 @@
     </row>
     <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>46</v>
@@ -21382,7 +21850,7 @@
     </row>
     <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>46</v>
@@ -21441,7 +21909,7 @@
     </row>
     <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>46</v>
@@ -21500,7 +21968,7 @@
     </row>
     <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>46</v>
@@ -21559,7 +22027,7 @@
     </row>
     <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>988</v>
@@ -21618,7 +22086,7 @@
     </row>
     <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>988</v>
@@ -21677,7 +22145,7 @@
     </row>
     <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>988</v>
@@ -21736,7 +22204,7 @@
     </row>
     <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>988</v>
@@ -21795,7 +22263,7 @@
     </row>
     <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>58</v>
@@ -21854,7 +22322,7 @@
     </row>
     <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>58</v>
@@ -21913,7 +22381,7 @@
     </row>
     <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>58</v>
@@ -21972,7 +22440,7 @@
     </row>
     <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>58</v>
@@ -22031,7 +22499,7 @@
     </row>
     <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>1004</v>
@@ -22090,7 +22558,7 @@
     </row>
     <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>1004</v>
@@ -22149,7 +22617,7 @@
     </row>
     <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>1004</v>
@@ -22208,7 +22676,7 @@
     </row>
     <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>1004</v>
@@ -22267,7 +22735,7 @@
     </row>
     <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>1004</v>
@@ -22326,7 +22794,7 @@
     </row>
     <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>1004</v>
@@ -22385,7 +22853,7 @@
     </row>
     <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>1004</v>
@@ -22444,7 +22912,7 @@
     </row>
     <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>1004</v>
@@ -22503,7 +22971,7 @@
     </row>
     <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>1018</v>
@@ -22562,7 +23030,7 @@
     </row>
     <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>1018</v>
@@ -22621,7 +23089,7 @@
     </row>
     <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>1018</v>
@@ -22680,7 +23148,7 @@
     </row>
     <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>1018</v>
@@ -22739,7 +23207,7 @@
     </row>
     <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>1018</v>
@@ -22798,7 +23266,7 @@
     </row>
     <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>1018</v>
@@ -22857,7 +23325,7 @@
     </row>
     <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>1018</v>
@@ -22916,7 +23384,7 @@
     </row>
     <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>1018</v>
@@ -22975,7 +23443,7 @@
     </row>
     <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>1034</v>
@@ -23034,7 +23502,7 @@
     </row>
     <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>1034</v>
@@ -23093,7 +23561,7 @@
     </row>
     <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>1034</v>
@@ -23152,7 +23620,7 @@
     </row>
     <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>1034</v>
@@ -23211,7 +23679,7 @@
     </row>
     <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>1034</v>
@@ -23270,7 +23738,7 @@
     </row>
     <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>1041</v>
@@ -23329,7 +23797,7 @@
     </row>
     <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>1041</v>
@@ -23388,7 +23856,7 @@
     </row>
     <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>1041</v>
@@ -23447,7 +23915,7 @@
     </row>
     <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>1041</v>
@@ -23506,7 +23974,7 @@
     </row>
     <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>1041</v>
@@ -23565,7 +24033,7 @@
     </row>
     <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>1041</v>
@@ -23624,7 +24092,7 @@
     </row>
     <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>1041</v>
@@ -23683,7 +24151,7 @@
     </row>
     <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>1041</v>
@@ -23742,7 +24210,7 @@
     </row>
     <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>1041</v>
@@ -23801,7 +24269,7 @@
     </row>
     <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>1041</v>
@@ -23860,7 +24328,7 @@
     </row>
     <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>1041</v>
@@ -23919,7 +24387,7 @@
     </row>
     <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>1041</v>
@@ -23978,7 +24446,7 @@
     </row>
     <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>1041</v>
@@ -24037,7 +24505,7 @@
     </row>
     <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>1041</v>
@@ -24096,7 +24564,7 @@
     </row>
     <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>1041</v>
@@ -24155,7 +24623,7 @@
     </row>
     <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>1041</v>
@@ -24214,7 +24682,7 @@
     </row>
     <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>1041</v>
@@ -24273,7 +24741,7 @@
     </row>
     <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>1075</v>
@@ -24332,7 +24800,7 @@
     </row>
     <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>1075</v>
@@ -24391,7 +24859,7 @@
     </row>
     <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>1075</v>
@@ -24450,7 +24918,7 @@
     </row>
     <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>1075</v>
@@ -24509,7 +24977,7 @@
     </row>
     <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>1075</v>
@@ -24568,7 +25036,7 @@
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>74</v>
@@ -24627,7 +25095,7 @@
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>74</v>
@@ -24686,7 +25154,7 @@
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>74</v>
@@ -24745,7 +25213,7 @@
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>74</v>
@@ -24804,7 +25272,7 @@
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>74</v>
@@ -24863,7 +25331,7 @@
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>74</v>
@@ -24922,7 +25390,7 @@
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>74</v>
@@ -24981,7 +25449,7 @@
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>74</v>
@@ -25040,7 +25508,7 @@
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>74</v>
@@ -25099,7 +25567,7 @@
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>74</v>
@@ -25158,7 +25626,7 @@
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>74</v>
@@ -25217,7 +25685,7 @@
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>74</v>
@@ -25276,7 +25744,7 @@
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>74</v>
@@ -25335,7 +25803,7 @@
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>74</v>
@@ -25394,7 +25862,7 @@
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>74</v>
@@ -25453,7 +25921,7 @@
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>74</v>
@@ -25512,7 +25980,7 @@
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>74</v>
@@ -25571,7 +26039,7 @@
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>74</v>
@@ -25630,7 +26098,7 @@
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>74</v>
@@ -25689,7 +26157,7 @@
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>74</v>
@@ -25748,7 +26216,7 @@
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>74</v>
@@ -25807,7 +26275,7 @@
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>74</v>
@@ -25866,7 +26334,7 @@
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>74</v>
@@ -25925,7 +26393,7 @@
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>74</v>
@@ -25984,7 +26452,7 @@
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>74</v>
@@ -26043,7 +26511,7 @@
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>74</v>
@@ -26102,7 +26570,7 @@
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>74</v>
@@ -26161,7 +26629,7 @@
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>74</v>
@@ -26220,7 +26688,7 @@
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>74</v>
@@ -26279,7 +26747,7 @@
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>74</v>
@@ -26338,7 +26806,7 @@
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>74</v>
@@ -26397,7 +26865,7 @@
     </row>
     <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>46</v>
@@ -26456,7 +26924,7 @@
     </row>
     <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>46</v>
@@ -26515,7 +26983,7 @@
     </row>
     <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>46</v>
@@ -26574,7 +27042,7 @@
     </row>
     <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>46</v>
@@ -26633,7 +27101,7 @@
     </row>
     <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>1004</v>
@@ -26692,7 +27160,7 @@
     </row>
     <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>1123</v>
@@ -26751,7 +27219,7 @@
     </row>
     <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>1123</v>
@@ -26810,7 +27278,7 @@
     </row>
     <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>1123</v>
@@ -26869,7 +27337,7 @@
     </row>
     <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>1123</v>
@@ -26928,7 +27396,7 @@
     </row>
     <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>1123</v>
@@ -26987,7 +27455,7 @@
     </row>
     <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>1123</v>
@@ -27046,7 +27514,7 @@
     </row>
     <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>1123</v>
@@ -27105,7 +27573,7 @@
     </row>
     <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>1123</v>
@@ -27164,7 +27632,7 @@
     </row>
     <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>1123</v>
@@ -27223,7 +27691,7 @@
     </row>
     <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>1123</v>
@@ -27282,7 +27750,7 @@
     </row>
     <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>1157</v>
@@ -27341,7 +27809,7 @@
     </row>
     <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>1157</v>
@@ -27400,7 +27868,7 @@
     </row>
     <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>1157</v>
@@ -27459,7 +27927,7 @@
     </row>
     <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>1157</v>
@@ -27518,7 +27986,7 @@
     </row>
     <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>1157</v>
@@ -27577,7 +28045,7 @@
     </row>
     <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>1157</v>
@@ -27636,7 +28104,7 @@
     </row>
     <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>1157</v>
@@ -27695,7 +28163,7 @@
     </row>
     <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>1157</v>
@@ -27754,7 +28222,7 @@
     </row>
     <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>1157</v>
@@ -27813,7 +28281,7 @@
     </row>
     <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>1157</v>
@@ -27872,7 +28340,7 @@
     </row>
     <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>1157</v>
@@ -27931,7 +28399,7 @@
     </row>
     <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>1157</v>
@@ -27990,7 +28458,7 @@
     </row>
     <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>1157</v>
@@ -28049,7 +28517,7 @@
     </row>
     <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>1157</v>
@@ -28108,7 +28576,7 @@
     </row>
     <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>1157</v>
@@ -28167,7 +28635,7 @@
     </row>
     <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>1157</v>
@@ -28226,7 +28694,7 @@
     </row>
     <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>1157</v>
@@ -28285,7 +28753,7 @@
     </row>
     <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>1157</v>
@@ -28344,7 +28812,7 @@
     </row>
     <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>1157</v>
@@ -28403,7 +28871,7 @@
     </row>
     <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>1157</v>
@@ -28462,7 +28930,7 @@
     </row>
     <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>1157</v>
@@ -28521,7 +28989,7 @@
     </row>
     <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>1157</v>
@@ -28580,7 +29048,7 @@
     </row>
     <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>1157</v>
@@ -28639,7 +29107,7 @@
     </row>
     <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>1157</v>
@@ -28698,7 +29166,7 @@
     </row>
     <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>1157</v>
@@ -28757,7 +29225,7 @@
     </row>
     <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>1157</v>
@@ -28816,7 +29284,7 @@
     </row>
     <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>1157</v>
@@ -28875,7 +29343,7 @@
     </row>
     <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>1157</v>
@@ -28934,7 +29402,7 @@
     </row>
     <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>1157</v>
@@ -28993,7 +29461,7 @@
     </row>
     <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>1157</v>
@@ -29052,7 +29520,7 @@
     </row>
     <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>1157</v>
@@ -29111,7 +29579,7 @@
     </row>
     <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>1157</v>
@@ -29170,7 +29638,7 @@
     </row>
     <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>1157</v>
@@ -29229,7 +29697,7 @@
     </row>
     <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>1157</v>
@@ -29288,7 +29756,7 @@
     </row>
     <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>1157</v>
@@ -29347,7 +29815,7 @@
     </row>
     <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>1157</v>
@@ -29406,7 +29874,7 @@
     </row>
     <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>1157</v>
@@ -29465,7 +29933,7 @@
     </row>
     <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>1157</v>
@@ -29524,7 +29992,7 @@
     </row>
     <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>1157</v>
@@ -29583,7 +30051,7 @@
     </row>
     <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>1157</v>
@@ -29642,7 +30110,7 @@
     </row>
     <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>1157</v>
@@ -29701,7 +30169,7 @@
     </row>
     <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>1157</v>
@@ -29760,7 +30228,7 @@
     </row>
     <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>1157</v>
@@ -29819,7 +30287,7 @@
     </row>
     <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>1157</v>
@@ -29878,7 +30346,7 @@
     </row>
     <row r="366" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>1157</v>
@@ -29937,7 +30405,7 @@
     </row>
     <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>1157</v>
@@ -29996,7 +30464,7 @@
     </row>
     <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>1157</v>
@@ -30055,7 +30523,7 @@
     </row>
     <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>1157</v>
@@ -30114,7 +30582,7 @@
     </row>
     <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>1157</v>
@@ -30173,7 +30641,7 @@
     </row>
     <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>1157</v>
@@ -30232,7 +30700,7 @@
     </row>
     <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>1157</v>
@@ -30291,7 +30759,7 @@
     </row>
     <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>1157</v>
@@ -30350,7 +30818,7 @@
     </row>
     <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>1157</v>
@@ -30409,7 +30877,7 @@
     </row>
     <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>1157</v>
@@ -30468,7 +30936,7 @@
     </row>
     <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>1157</v>
@@ -30527,7 +30995,7 @@
     </row>
     <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>1157</v>
@@ -30586,7 +31054,7 @@
     </row>
     <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>74</v>
@@ -30645,7 +31113,7 @@
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>74</v>
@@ -30704,7 +31172,7 @@
     </row>
     <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>74</v>
@@ -30763,7 +31231,7 @@
     </row>
     <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>46</v>
@@ -30822,7 +31290,7 @@
     </row>
     <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>46</v>
@@ -30881,7 +31349,7 @@
     </row>
     <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>46</v>
@@ -30940,7 +31408,7 @@
     </row>
     <row r="384" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>46</v>
@@ -30999,7 +31467,7 @@
     </row>
     <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>1041</v>
@@ -31058,7 +31526,7 @@
     </row>
     <row r="386" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>82</v>
@@ -31117,7 +31585,7 @@
     </row>
     <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>82</v>
@@ -31176,7 +31644,7 @@
     </row>
     <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>82</v>
@@ -31235,7 +31703,7 @@
     </row>
     <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>82</v>
@@ -31294,7 +31762,7 @@
     </row>
     <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>82</v>
@@ -31353,7 +31821,7 @@
     </row>
     <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>82</v>
@@ -31412,7 +31880,7 @@
     </row>
     <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>82</v>
@@ -31471,7 +31939,7 @@
     </row>
     <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>82</v>
@@ -31530,7 +31998,7 @@
     </row>
     <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>82</v>
@@ -31589,7 +32057,7 @@
     </row>
     <row r="395" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>82</v>
@@ -31648,7 +32116,7 @@
     </row>
     <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>82</v>
@@ -31707,7 +32175,7 @@
     </row>
     <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>82</v>
@@ -31766,7 +32234,7 @@
     </row>
     <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>82</v>
@@ -31825,7 +32293,7 @@
     </row>
     <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>82</v>
@@ -31884,7 +32352,7 @@
     </row>
     <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>82</v>
@@ -31943,7 +32411,7 @@
     </row>
     <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>82</v>
@@ -32002,7 +32470,7 @@
     </row>
     <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>82</v>
@@ -32061,7 +32529,7 @@
     </row>
     <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>46</v>
@@ -32120,7 +32588,7 @@
     </row>
     <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>46</v>
@@ -32179,7 +32647,7 @@
     </row>
     <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>82</v>
@@ -32238,7 +32706,7 @@
     </row>
     <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>82</v>
@@ -32297,7 +32765,7 @@
     </row>
     <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>82</v>
@@ -32356,7 +32824,7 @@
     </row>
     <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>82</v>
@@ -32415,7 +32883,7 @@
     </row>
     <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>82</v>
@@ -32474,7 +32942,7 @@
     </row>
     <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>82</v>
@@ -32533,7 +33001,7 @@
     </row>
     <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>82</v>
@@ -32592,7 +33060,7 @@
     </row>
     <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>82</v>
@@ -32651,7 +33119,7 @@
     </row>
     <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>82</v>
@@ -32710,7 +33178,7 @@
     </row>
     <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>82</v>
@@ -32769,7 +33237,7 @@
     </row>
     <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>82</v>
@@ -32828,7 +33296,7 @@
     </row>
     <row r="416" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>82</v>
@@ -32887,7 +33355,7 @@
     </row>
     <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>46</v>
@@ -32946,7 +33414,7 @@
     </row>
     <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>46</v>
@@ -33005,7 +33473,7 @@
     </row>
     <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>46</v>
@@ -33064,7 +33532,7 @@
     </row>
     <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>46</v>
@@ -33123,7 +33591,7 @@
     </row>
     <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>46</v>
@@ -33182,7 +33650,7 @@
     </row>
     <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>46</v>
@@ -33241,7 +33709,7 @@
     </row>
     <row r="423" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>46</v>
@@ -33300,7 +33768,7 @@
     </row>
     <row r="424" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>82</v>
@@ -33359,7 +33827,7 @@
     </row>
     <row r="425" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>82</v>
@@ -33418,7 +33886,7 @@
     </row>
     <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>82</v>
@@ -33477,7 +33945,7 @@
     </row>
     <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>82</v>
@@ -33536,7 +34004,7 @@
     </row>
     <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>82</v>
@@ -33595,7 +34063,7 @@
     </row>
     <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>82</v>
@@ -33654,7 +34122,7 @@
     </row>
     <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>82</v>
@@ -33713,7 +34181,7 @@
     </row>
     <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>112</v>
@@ -33772,7 +34240,7 @@
     </row>
     <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>112</v>
@@ -33831,7 +34299,7 @@
     </row>
     <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>112</v>
@@ -33890,7 +34358,7 @@
     </row>
     <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>112</v>
@@ -33949,7 +34417,7 @@
     </row>
     <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>112</v>
@@ -34008,7 +34476,7 @@
     </row>
     <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>112</v>

--- a/Uploads/Data/SampleEventWQ_TEMPLATE.xlsx
+++ b/Uploads/Data/SampleEventWQ_TEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\SQL-Database-Corrections\Uploads\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\SQL-Database-Corrections\Uploads\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A46B1D8-6D8D-4CE2-9D33-C50F5CA3669A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF83D92-C022-4246-996A-B976F3B42318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2108D022-863A-4DDA-9361-349A7F55884E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2108D022-863A-4DDA-9361-349A7F55884E}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11520" uniqueCount="2249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11523" uniqueCount="2249">
   <si>
     <t>SampleEventWQID</t>
   </si>
@@ -6974,7 +6974,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="51">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -7041,7 +7041,25 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7142,30 +7160,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}" name="Table2" displayName="Table2" ref="A8:U14" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A8:U14" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}"/>
-  <tableColumns count="21">
-    <tableColumn id="20" xr3:uid="{FC1F9811-332A-4FBC-A60F-2ABD60672380}" name="DataType" dataDxfId="42"/>
-    <tableColumn id="1" xr3:uid="{144FE1A1-5D1F-48A8-B4E0-C6821BF0BD54}" name="Date" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{AFF01087-08D5-4CF6-9523-62D2D0BEBC6B}" name="Estuary" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{2970053B-A957-48FC-A90D-21B578A4956B}" name="StationNumber" dataDxfId="39"/>
-    <tableColumn id="21" xr3:uid="{A5646A38-CEE4-47A5-A8D7-2C283D516F4F}" name="RecordNumber" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{C179B73B-131D-4D71-B4A0-C4CC7D758024}" name="CollectionTime [hhmm]" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{8B92EA8F-2DFF-4C65-939A-39D87C62433B}" name="Depth" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{76C6FCEB-0D98-4AFF-87B3-78193D7FFE8E}" name="SampleDepth" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{633E4762-4EB2-4A55-9B00-1336FF487A9F}" name="Temperature" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{66807F70-E995-4481-B4AF-41394A4C37E0}" name="Salinity" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{63FB168B-9A0B-4344-A86F-733BAD223B17}" name="pH" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{AC27265D-7D40-438F-A234-94AEBC98D1BA}" name="DissolvedOxygen" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{9F749151-8279-4E42-9767-A2CF43E6617B}" name="PercentDissolvedOxygen" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{127AA6C3-F48B-4516-BC6A-B9F89B73401F}" name="Secchi" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{6F9B8C9E-CDF6-4BEE-A2C2-6C6852EB70E2}" name="TurbidityYSI" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{90EE055D-A71E-4D28-B975-F45623AAE850}" name="TurbidityHach" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{23A9EA71-7204-424A-A1C6-DD44A7137225}" name="DateEntered" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{59E70D4E-0FC7-43FD-854E-72E1A1B7CB06}" name="EnteredBy" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{0506E9DB-8E2C-4F8E-BCCA-F66991F2B2FA}" name="Comments" dataDxfId="24"/>
-    <tableColumn id="18" xr3:uid="{8B343F40-3158-4F64-8865-9A7ACEEF8394}" name="YSICalibration" dataDxfId="23"/>
-    <tableColumn id="19" xr3:uid="{78BBCEE7-4E32-43E3-B71C-74EF070C545B}" name="YSINotes" dataDxfId="22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}" name="Table2" displayName="Table2" ref="A8:X14" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A8:X14" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}"/>
+  <tableColumns count="24">
+    <tableColumn id="20" xr3:uid="{FC1F9811-332A-4FBC-A60F-2ABD60672380}" name="DataType" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{144FE1A1-5D1F-48A8-B4E0-C6821BF0BD54}" name="Date" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{AFF01087-08D5-4CF6-9523-62D2D0BEBC6B}" name="Estuary" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{2970053B-A957-48FC-A90D-21B578A4956B}" name="StationNumber" dataDxfId="45"/>
+    <tableColumn id="21" xr3:uid="{A5646A38-CEE4-47A5-A8D7-2C283D516F4F}" name="RecordNumber" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{C179B73B-131D-4D71-B4A0-C4CC7D758024}" name="CollectionTime [hhmm]" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{8B92EA8F-2DFF-4C65-939A-39D87C62433B}" name="Depth" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{76C6FCEB-0D98-4AFF-87B3-78193D7FFE8E}" name="SampleDepth" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{633E4762-4EB2-4A55-9B00-1336FF487A9F}" name="Temperature" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{66807F70-E995-4481-B4AF-41394A4C37E0}" name="Salinity" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{63FB168B-9A0B-4344-A86F-733BAD223B17}" name="pH" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{AC27265D-7D40-438F-A234-94AEBC98D1BA}" name="DissolvedOxygen" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{9F749151-8279-4E42-9767-A2CF43E6617B}" name="PercentDissolvedOxygen" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{127AA6C3-F48B-4516-BC6A-B9F89B73401F}" name="Secchi" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{6F9B8C9E-CDF6-4BEE-A2C2-6C6852EB70E2}" name="TurbidityYSI" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{90EE055D-A71E-4D28-B975-F45623AAE850}" name="TurbidityHach" dataDxfId="33"/>
+    <tableColumn id="24" xr3:uid="{E4DBA2FE-E7A1-4744-B40E-1A10336728ED}" name="DataStatus" dataDxfId="32"/>
+    <tableColumn id="15" xr3:uid="{23A9EA71-7204-424A-A1C6-DD44A7137225}" name="DateEntered" dataDxfId="31"/>
+    <tableColumn id="16" xr3:uid="{59E70D4E-0FC7-43FD-854E-72E1A1B7CB06}" name="EnteredBy" dataDxfId="30"/>
+    <tableColumn id="23" xr3:uid="{ACBE32B7-AA58-4BAB-BE4F-09E49722690E}" name="DateProofed" dataDxfId="29"/>
+    <tableColumn id="22" xr3:uid="{A7DDF3E4-6E39-4CBD-8A69-CA70B772AD39}" name="ProofedBy" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{0506E9DB-8E2C-4F8E-BCCA-F66991F2B2FA}" name="Comments" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{8B343F40-3158-4F64-8865-9A7ACEEF8394}" name="YSICalibration" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{78BBCEE7-4E32-43E3-B71C-74EF070C545B}" name="YSINotes" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7175,7 +7196,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}" name="Table3" displayName="Table3" ref="A1:X7" totalsRowShown="0">
   <autoFilter ref="A1:X7" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{76D7ABEC-2288-4626-9B6A-9D01F60F39E0}" name="SampleEventWQID" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{76D7ABEC-2288-4626-9B6A-9D01F60F39E0}" name="SampleEventWQID" dataDxfId="24">
       <calculatedColumnFormula array="1">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[StationNumber]=Instructions!D9)*(Instructions!B9&gt;Table1[StartDate])*(Instructions!B9&lt;Table1[EndDate]),0),1),"_1_0",Instructions!E9)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{9F338ED6-22F6-4E24-AA7D-AC0F8BB69B23}" name="SampleEventID">
@@ -7190,11 +7211,21 @@
     <tableColumn id="9" xr3:uid="{3EB7E06B-CC25-401C-B805-C08B9FF37610}" name="Secchi"/>
     <tableColumn id="10" xr3:uid="{88BFF309-239D-47DC-A8D0-606E10D118AC}" name="TurbidityYSI"/>
     <tableColumn id="11" xr3:uid="{171ED6C6-5895-49D6-93F7-8D3B55C1BB93}" name="TurbidityHach"/>
-    <tableColumn id="12" xr3:uid="{36D1E33A-4DE5-4053-922B-6E880D218F24}" name="DataStatus"/>
-    <tableColumn id="13" xr3:uid="{D244E709-7C65-411A-9E84-01FD8131200F}" name="DateEntered"/>
-    <tableColumn id="14" xr3:uid="{FE22530B-3F54-4A5A-AA63-853CAB9B59A8}" name="EnteredBy"/>
-    <tableColumn id="15" xr3:uid="{BE0FC0F4-9A8F-472D-A1F0-94C39369E455}" name="DateProofed"/>
-    <tableColumn id="16" xr3:uid="{10241405-8D6A-42B5-8702-FB7153B5BBB9}" name="ProofedBy"/>
+    <tableColumn id="12" xr3:uid="{36D1E33A-4DE5-4053-922B-6E880D218F24}" name="DataStatus" dataDxfId="23">
+      <calculatedColumnFormula>IF(ISBLANK(Instructions!Q9),"",Instructions!Q9)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{D244E709-7C65-411A-9E84-01FD8131200F}" name="DateEntered" dataDxfId="22">
+      <calculatedColumnFormula>IF(ISBLANK(Instructions!R9),"",Instructions!R9)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{FE22530B-3F54-4A5A-AA63-853CAB9B59A8}" name="EnteredBy">
+      <calculatedColumnFormula>IF(ISBLANK(Instructions!S9),"",Instructions!S9)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{BE0FC0F4-9A8F-472D-A1F0-94C39369E455}" name="DateProofed" dataDxfId="21">
+      <calculatedColumnFormula>IF(ISBLANK(Instructions!T9),"",Instructions!T9)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{10241405-8D6A-42B5-8702-FB7153B5BBB9}" name="ProofedBy">
+      <calculatedColumnFormula>IF(ISBLANK(Instructions!U9),"",Instructions!U9)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="17" xr3:uid="{095E345F-31E0-45E1-A75E-D26E3ADFCB1B}" name="DateCompleted"/>
     <tableColumn id="18" xr3:uid="{58F892B1-7D00-4DB4-9264-0B45FFAD448B}" name="CompletedBy"/>
     <tableColumn id="19" xr3:uid="{49D400BA-2D8E-449C-B429-4D906D77097B}" name="Comments"/>
@@ -7562,7 +7593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00D894D-DF5E-46E1-A945-092FA5E16BBD}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -7576,22 +7607,22 @@
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="16" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="16" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
@@ -7604,7 +7635,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
@@ -7617,7 +7648,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>1806</v>
       </c>
@@ -7630,7 +7661,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>1809</v>
       </c>
@@ -7643,7 +7674,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>1803</v>
       </c>
@@ -7656,7 +7687,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>1808</v>
       </c>
@@ -7669,7 +7700,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1805</v>
       </c>
@@ -7719,22 +7750,31 @@
         <v>10</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2245</v>
       </c>
@@ -7775,19 +7815,22 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="3">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="3">
         <v>45645</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>1804</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>2248</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2245</v>
       </c>
@@ -7828,19 +7871,22 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="3">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="3">
         <v>45645</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>1804</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>2248</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>2245</v>
       </c>
@@ -7881,19 +7927,22 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="3">
+      <c r="Q11" s="2"/>
+      <c r="R11" s="3">
         <v>45645</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>1804</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>2248</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2245</v>
       </c>
@@ -7934,19 +7983,22 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="3">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="3">
         <v>45645</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>1804</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>2248</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>2245</v>
       </c>
@@ -7987,19 +8039,22 @@
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="3">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="3">
         <v>45645</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>1804</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>2248</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>2245</v>
       </c>
@@ -8040,17 +8095,20 @@
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="3">
+      <c r="Q14" s="2"/>
+      <c r="R14" s="3">
         <v>45645</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>1804</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>2248</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
+      <c r="V14" s="2" t="s">
+        <v>2248</v>
+      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8073,7 +8131,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8223,25 +8281,25 @@
         <f>IF(Instructions!P9&lt;&gt;"",Instructions!P9,"NULL")</f>
         <v>NULL</v>
       </c>
-      <c r="L2" t="str">
-        <f>"Entered"</f>
-        <v>Entered</v>
+      <c r="L2" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q9),"",Instructions!Q9)</f>
+        <v/>
       </c>
       <c r="M2" s="1">
-        <f>Instructions!Q9</f>
+        <f>IF(ISBLANK(Instructions!R9),"",Instructions!R9)</f>
         <v>45645</v>
       </c>
       <c r="N2" t="str">
-        <f>Instructions!R9</f>
+        <f>IF(ISBLANK(Instructions!S9),"",Instructions!S9)</f>
         <v>Erica Williams</v>
       </c>
-      <c r="O2" t="str">
-        <f>"NULL"</f>
-        <v>NULL</v>
+      <c r="O2" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!T9),"",Instructions!T9)</f>
+        <v/>
       </c>
       <c r="P2" t="str">
-        <f>"NULL"</f>
-        <v>NULL</v>
+        <f>IF(ISBLANK(Instructions!U9),"",Instructions!U9)</f>
+        <v/>
       </c>
       <c r="Q2" t="str">
         <f>"NULL"</f>
@@ -8252,7 +8310,7 @@
         <v>NULL</v>
       </c>
       <c r="S2" t="str">
-        <f>IF(Instructions!S9&lt;&gt;"",Instructions!S9,"NULL")</f>
+        <f>IF(Instructions!V9&lt;&gt;"",Instructions!V9,"NULL")</f>
         <v>pH not recorded</v>
       </c>
       <c r="T2" t="str">
@@ -8268,11 +8326,11 @@
         <v>NULL</v>
       </c>
       <c r="W2" t="str">
-        <f>IF(Instructions!T9&lt;&gt;"",Instructions!T9,"NULL")</f>
+        <f>IF(Instructions!W9&lt;&gt;"",Instructions!W9,"NULL")</f>
         <v>NULL</v>
       </c>
       <c r="X2" t="str">
-        <f>IF(Instructions!U9&lt;&gt;"",Instructions!U9,"NULL")</f>
+        <f>IF(Instructions!X9&lt;&gt;"",Instructions!X9,"NULL")</f>
         <v>NULL</v>
       </c>
     </row>
@@ -8321,40 +8379,40 @@
         <f>IF(Instructions!P10&lt;&gt;"",Instructions!P10,"NULL")</f>
         <v>NULL</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L7" si="0">"Entered"</f>
-        <v>Entered</v>
+      <c r="L3" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q10),"",Instructions!Q10)</f>
+        <v/>
       </c>
       <c r="M3" s="1">
-        <f>Instructions!Q10</f>
+        <f>IF(ISBLANK(Instructions!R10),"",Instructions!R10)</f>
         <v>45645</v>
       </c>
       <c r="N3" t="str">
-        <f>Instructions!R10</f>
+        <f>IF(ISBLANK(Instructions!S10),"",Instructions!S10)</f>
         <v>Erica Williams</v>
       </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:R7" si="1">"NULL"</f>
+      <c r="O3" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!T10),"",Instructions!T10)</f>
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <f>IF(ISBLANK(Instructions!U10),"",Instructions!U10)</f>
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:R7" si="0">"NULL"</f>
         <v>NULL</v>
       </c>
-      <c r="P3" t="str">
-        <f t="shared" si="1"/>
+      <c r="R3" t="str">
+        <f t="shared" si="0"/>
         <v>NULL</v>
       </c>
-      <c r="Q3" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="R3" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
       <c r="S3" t="str">
-        <f>IF(Instructions!S10&lt;&gt;"",Instructions!S10,"NULL")</f>
+        <f>IF(Instructions!V10&lt;&gt;"",Instructions!V10,"NULL")</f>
         <v>pH not recorded</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" ref="T3:T7" si="2">"NULL"</f>
+        <f t="shared" ref="T3:T7" si="1">"NULL"</f>
         <v>NULL</v>
       </c>
       <c r="U3" t="str">
@@ -8366,11 +8424,11 @@
         <v>NULL</v>
       </c>
       <c r="W3" t="str">
-        <f>IF(Instructions!T10&lt;&gt;"",Instructions!T10,"NULL")</f>
+        <f>IF(Instructions!W10&lt;&gt;"",Instructions!W10,"NULL")</f>
         <v>NULL</v>
       </c>
       <c r="X3" t="str">
-        <f>IF(Instructions!U10&lt;&gt;"",Instructions!U10,"NULL")</f>
+        <f>IF(Instructions!X10&lt;&gt;"",Instructions!X10,"NULL")</f>
         <v>NULL</v>
       </c>
     </row>
@@ -8419,40 +8477,40 @@
         <f>IF(Instructions!P11&lt;&gt;"",Instructions!P11,"NULL")</f>
         <v>NULL</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q11),"",Instructions!Q11)</f>
+        <v/>
+      </c>
+      <c r="M4" s="1">
+        <f>IF(ISBLANK(Instructions!R11),"",Instructions!R11)</f>
+        <v>45645</v>
+      </c>
+      <c r="N4" t="str">
+        <f>IF(ISBLANK(Instructions!S11),"",Instructions!S11)</f>
+        <v>Erica Williams</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!T11),"",Instructions!T11)</f>
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <f>IF(ISBLANK(Instructions!U11),"",Instructions!U11)</f>
+        <v/>
+      </c>
+      <c r="Q4" t="str">
         <f t="shared" si="0"/>
-        <v>Entered</v>
-      </c>
-      <c r="M4" s="1">
-        <f>Instructions!Q11</f>
-        <v>45645</v>
-      </c>
-      <c r="N4" t="str">
-        <f>Instructions!R11</f>
-        <v>Erica Williams</v>
-      </c>
-      <c r="O4" t="str">
+        <v>NULL</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="0"/>
+        <v>NULL</v>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(Instructions!V11&lt;&gt;"",Instructions!V11,"NULL")</f>
+        <v>pH not recorded</v>
+      </c>
+      <c r="T4" t="str">
         <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="R4" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="S4" t="str">
-        <f>IF(Instructions!S11&lt;&gt;"",Instructions!S11,"NULL")</f>
-        <v>pH not recorded</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" si="2"/>
         <v>NULL</v>
       </c>
       <c r="U4" t="str">
@@ -8464,11 +8522,11 @@
         <v>NULL</v>
       </c>
       <c r="W4" t="str">
-        <f>IF(Instructions!T11&lt;&gt;"",Instructions!T11,"NULL")</f>
+        <f>IF(Instructions!W11&lt;&gt;"",Instructions!W11,"NULL")</f>
         <v>NULL</v>
       </c>
       <c r="X4" t="str">
-        <f>IF(Instructions!U11&lt;&gt;"",Instructions!U11,"NULL")</f>
+        <f>IF(Instructions!X11&lt;&gt;"",Instructions!X11,"NULL")</f>
         <v>NULL</v>
       </c>
     </row>
@@ -8517,40 +8575,40 @@
         <f>IF(Instructions!P12&lt;&gt;"",Instructions!P12,"NULL")</f>
         <v>NULL</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L5" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q12),"",Instructions!Q12)</f>
+        <v/>
+      </c>
+      <c r="M5" s="1">
+        <f>IF(ISBLANK(Instructions!R12),"",Instructions!R12)</f>
+        <v>45645</v>
+      </c>
+      <c r="N5" t="str">
+        <f>IF(ISBLANK(Instructions!S12),"",Instructions!S12)</f>
+        <v>Erica Williams</v>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!T12),"",Instructions!T12)</f>
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <f>IF(ISBLANK(Instructions!U12),"",Instructions!U12)</f>
+        <v/>
+      </c>
+      <c r="Q5" t="str">
         <f t="shared" si="0"/>
-        <v>Entered</v>
-      </c>
-      <c r="M5" s="1">
-        <f>Instructions!Q12</f>
-        <v>45645</v>
-      </c>
-      <c r="N5" t="str">
-        <f>Instructions!R12</f>
-        <v>Erica Williams</v>
-      </c>
-      <c r="O5" t="str">
+        <v>NULL</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>NULL</v>
+      </c>
+      <c r="S5" t="str">
+        <f>IF(Instructions!V12&lt;&gt;"",Instructions!V12,"NULL")</f>
+        <v>pH not recorded</v>
+      </c>
+      <c r="T5" t="str">
         <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="R5" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="S5" t="str">
-        <f>IF(Instructions!S12&lt;&gt;"",Instructions!S12,"NULL")</f>
-        <v>pH not recorded</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="2"/>
         <v>NULL</v>
       </c>
       <c r="U5" t="str">
@@ -8562,11 +8620,11 @@
         <v>NULL</v>
       </c>
       <c r="W5" t="str">
-        <f>IF(Instructions!T12&lt;&gt;"",Instructions!T12,"NULL")</f>
+        <f>IF(Instructions!W12&lt;&gt;"",Instructions!W12,"NULL")</f>
         <v>NULL</v>
       </c>
       <c r="X5" t="str">
-        <f>IF(Instructions!U12&lt;&gt;"",Instructions!U12,"NULL")</f>
+        <f>IF(Instructions!X12&lt;&gt;"",Instructions!X12,"NULL")</f>
         <v>NULL</v>
       </c>
     </row>
@@ -8615,40 +8673,40 @@
         <f>IF(Instructions!P13&lt;&gt;"",Instructions!P13,"NULL")</f>
         <v>NULL</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L6" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q13),"",Instructions!Q13)</f>
+        <v/>
+      </c>
+      <c r="M6" s="1">
+        <f>IF(ISBLANK(Instructions!R13),"",Instructions!R13)</f>
+        <v>45645</v>
+      </c>
+      <c r="N6" t="str">
+        <f>IF(ISBLANK(Instructions!S13),"",Instructions!S13)</f>
+        <v>Erica Williams</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!T13),"",Instructions!T13)</f>
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <f>IF(ISBLANK(Instructions!U13),"",Instructions!U13)</f>
+        <v/>
+      </c>
+      <c r="Q6" t="str">
         <f t="shared" si="0"/>
-        <v>Entered</v>
-      </c>
-      <c r="M6" s="1">
-        <f>Instructions!Q13</f>
-        <v>45645</v>
-      </c>
-      <c r="N6" t="str">
-        <f>Instructions!R13</f>
-        <v>Erica Williams</v>
-      </c>
-      <c r="O6" t="str">
+        <v>NULL</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
+        <v>NULL</v>
+      </c>
+      <c r="S6" t="str">
+        <f>IF(Instructions!V13&lt;&gt;"",Instructions!V13,"NULL")</f>
+        <v>pH not recorded</v>
+      </c>
+      <c r="T6" t="str">
         <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="R6" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="S6" t="str">
-        <f>IF(Instructions!S13&lt;&gt;"",Instructions!S13,"NULL")</f>
-        <v>pH not recorded</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="2"/>
         <v>NULL</v>
       </c>
       <c r="U6" t="str">
@@ -8660,11 +8718,11 @@
         <v>NULL</v>
       </c>
       <c r="W6" t="str">
-        <f>IF(Instructions!T13&lt;&gt;"",Instructions!T13,"NULL")</f>
+        <f>IF(Instructions!W13&lt;&gt;"",Instructions!W13,"NULL")</f>
         <v>NULL</v>
       </c>
       <c r="X6" t="str">
-        <f>IF(Instructions!U13&lt;&gt;"",Instructions!U13,"NULL")</f>
+        <f>IF(Instructions!X13&lt;&gt;"",Instructions!X13,"NULL")</f>
         <v>NULL</v>
       </c>
     </row>
@@ -8713,40 +8771,40 @@
         <f>IF(Instructions!P14&lt;&gt;"",Instructions!P14,"NULL")</f>
         <v>NULL</v>
       </c>
-      <c r="L7" t="str">
+      <c r="L7" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!Q14),"",Instructions!Q14)</f>
+        <v/>
+      </c>
+      <c r="M7" s="1">
+        <f>IF(ISBLANK(Instructions!R14),"",Instructions!R14)</f>
+        <v>45645</v>
+      </c>
+      <c r="N7" t="str">
+        <f>IF(ISBLANK(Instructions!S14),"",Instructions!S14)</f>
+        <v>Erica Williams</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f>IF(ISBLANK(Instructions!T14),"",Instructions!T14)</f>
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <f>IF(ISBLANK(Instructions!U14),"",Instructions!U14)</f>
+        <v/>
+      </c>
+      <c r="Q7" t="str">
         <f t="shared" si="0"/>
-        <v>Entered</v>
-      </c>
-      <c r="M7" s="1">
-        <f>Instructions!Q14</f>
-        <v>45645</v>
-      </c>
-      <c r="N7" t="str">
-        <f>Instructions!R14</f>
-        <v>Erica Williams</v>
-      </c>
-      <c r="O7" t="str">
+        <v>NULL</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>NULL</v>
+      </c>
+      <c r="S7" t="str">
+        <f>IF(Instructions!V14&lt;&gt;"",Instructions!V14,"NULL")</f>
+        <v>pH not recorded</v>
+      </c>
+      <c r="T7" t="str">
         <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="R7" t="str">
-        <f t="shared" si="1"/>
-        <v>NULL</v>
-      </c>
-      <c r="S7" t="str">
-        <f>IF(Instructions!S14&lt;&gt;"",Instructions!S14,"NULL")</f>
-        <v>pH not recorded</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="2"/>
         <v>NULL</v>
       </c>
       <c r="U7" t="str">
@@ -8758,11 +8816,11 @@
         <v>NULL</v>
       </c>
       <c r="W7" t="str">
-        <f>IF(Instructions!T14&lt;&gt;"",Instructions!T14,"NULL")</f>
+        <f>IF(Instructions!W14&lt;&gt;"",Instructions!W14,"NULL")</f>
         <v>NULL</v>
       </c>
       <c r="X7" t="str">
-        <f>IF(Instructions!U14&lt;&gt;"",Instructions!U14,"NULL")</f>
+        <f>IF(Instructions!X14&lt;&gt;"",Instructions!X14,"NULL")</f>
         <v>NULL</v>
       </c>
     </row>
